--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_655.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_655.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d82360-Reviews-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>148</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Residence-Inn-By-Marriott-Torrance-Redondo-Beach.h14325.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_655.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_655.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1709 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r576329830-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>33182</t>
+  </si>
+  <si>
+    <t>82360</t>
+  </si>
+  <si>
+    <t>576329830</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Refreshed but not improved</t>
+  </si>
+  <si>
+    <t>I stayed here in April 2016 and reviewed it previously.  Stayed here again this past week and the refresh of the room was appreciated.  An older property, the sound insulation still isn't optimal, but so long as you stay on second floor or don't have neighbors above you, its just fine.  The room layout was improved and the refresh of was nice except the mattress seemed forgotten.  It was simply old and a flimsy topper didn't change it but may it worse, far too squishy and needs to be replaced ASAP in room 412.  I didn't use the breakfast this time around, but it appeared great and it was solid last time, but when you refresh a room but overlook the most important part, sleep quality, than it's hard to improve my review from last time, and I really wanted to because cleanliness was good and the rest of the refresh I found quite attractive.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ruby m, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here in April 2016 and reviewed it previously.  Stayed here again this past week and the refresh of the room was appreciated.  An older property, the sound insulation still isn't optimal, but so long as you stay on second floor or don't have neighbors above you, its just fine.  The room layout was improved and the refresh of was nice except the mattress seemed forgotten.  It was simply old and a flimsy topper didn't change it but may it worse, far too squishy and needs to be replaced ASAP in room 412.  I didn't use the breakfast this time around, but it appeared great and it was solid last time, but when you refresh a room but overlook the most important part, sleep quality, than it's hard to improve my review from last time, and I really wanted to because cleanliness was good and the rest of the refresh I found quite attractive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r572671258-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>572671258</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Marriott Residence Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love staying at Marriott's Residence Inn.  If you have multiple adults and/or kids traveling together there is no better option for a bigger group or a family.  The Residence Inn Torrance/Redondo Beach - while a little further away from LAX then I anticipated - was clean, the employees were friendly and we enjoyed our stay.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r570354848-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>570354848</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>My favourite accommodation in Torrance</t>
+  </si>
+  <si>
+    <t>It was the fourth times to stay at Residence inn. The hotel has an excellent locations. It is close to business area, shopping center and beaches. The nearest restaurants are only 300 feet from here (2 minutes on foot). Good, free breakfast every morning and dinner with beers, from Monday to Wednesday. Nonstop gym at the 2nd floor of renewed reception building. Clean and nice apartments with fully equipped kitchen. The staff is kind and helpful. I hope, I'll back.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Ruby m, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>It was the fourth times to stay at Residence inn. The hotel has an excellent locations. It is close to business area, shopping center and beaches. The nearest restaurants are only 300 feet from here (2 minutes on foot). Good, free breakfast every morning and dinner with beers, from Monday to Wednesday. Nonstop gym at the 2nd floor of renewed reception building. Clean and nice apartments with fully equipped kitchen. The staff is kind and helpful. I hope, I'll back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r567881490-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>567881490</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Vacation to the beach for our family of 5.   Chose this property based on the fact it had a loft, and thus easily can sleep 5.   I will get the negative out first...yes, as previous reviewers have stated, if you choose a suite, they are located on the 2nd floor and there is no elevators.   But if steps are not a problem, then read on and book because this hotel is great.   The suites (1 bedroom with adjoining bath, 1 living area, full kitchen and a loft with a bed room and another bathroom) are SPACIOUS.   After the 5 of us were in a 'normal room' for a few nights, spreading out here felt like a little slice of heaven.    The property is clean, as is the rooms.  The main areas include a heated outdoor pool, a hot tub, a bbq area with multiple grills, a fire pit and a sport court with a basketball hoop.  It gave us lots to do.  The morning breakfast was plentiful, and the night reception included sandwiches, fixings and beer/wine.   The internet worked without a problem.  3 tvs gave everyone options to watch what they wanted.   Location was easy to find, and the campus is large so we never heard the traffic on the main street.  Overall, two very big thumbs up.   RECOMMEND!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>frankeeper, General Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Vacation to the beach for our family of 5.   Chose this property based on the fact it had a loft, and thus easily can sleep 5.   I will get the negative out first...yes, as previous reviewers have stated, if you choose a suite, they are located on the 2nd floor and there is no elevators.   But if steps are not a problem, then read on and book because this hotel is great.   The suites (1 bedroom with adjoining bath, 1 living area, full kitchen and a loft with a bed room and another bathroom) are SPACIOUS.   After the 5 of us were in a 'normal room' for a few nights, spreading out here felt like a little slice of heaven.    The property is clean, as is the rooms.  The main areas include a heated outdoor pool, a hot tub, a bbq area with multiple grills, a fire pit and a sport court with a basketball hoop.  It gave us lots to do.  The morning breakfast was plentiful, and the night reception included sandwiches, fixings and beer/wine.   The internet worked without a problem.  3 tvs gave everyone options to watch what they wanted.   Location was easy to find, and the campus is large so we never heard the traffic on the main street.  Overall, two very big thumbs up.   RECOMMEND!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r564711496-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>564711496</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Only average for a Residence Inn</t>
+  </si>
+  <si>
+    <t>Liked the location, neighborhood with lots of shops and close to LAX airport without the noise. Rooms however located in small multiunit buildings requiring that you climb two flights of stairs with bags to second floor units and to walk outside to get back to main building, fitness, or pool.  Disappointed room with two doule instead of queen beds even though plenty of room in same.  Sofa small and room layout (contrary to other RInns we have stayed in with partial kitchen setup such that you cannot see TV with limited counter/table eating space.  Pool and whirlpool on small side.  TV service not working on equipment in fitness rm and went in and out during the day in the room.  Continental breakfast and evening dinners provided (again compared to other Residence Inns we have stayed at) put out small amounts of food items/choices inadequate to serve the quantity of people in line. Dessert choices verey limited and boring.  Large groups of students staying at this location often monopollized eating areas and recreational areas (firepit and sitting areas) for own meals and parties making it impossible for other guests to access this area.  Alcohol was being served at these outside gatherings and the noise level could be heard inside nearby rooms with shouting by these partiers trying to control those who were misehaving while under the influence.  Complained to front desk staff who seemed to be unaware.   Large uses associated with...Liked the location, neighborhood with lots of shops and close to LAX airport without the noise. Rooms however located in small multiunit buildings requiring that you climb two flights of stairs with bags to second floor units and to walk outside to get back to main building, fitness, or pool.  Disappointed room with two doule instead of queen beds even though plenty of room in same.  Sofa small and room layout (contrary to other RInns we have stayed in with partial kitchen setup such that you cannot see TV with limited counter/table eating space.  Pool and whirlpool on small side.  TV service not working on equipment in fitness rm and went in and out during the day in the room.  Continental breakfast and evening dinners provided (again compared to other Residence Inns we have stayed at) put out small amounts of food items/choices inadequate to serve the quantity of people in line. Dessert choices verey limited and boring.  Large groups of students staying at this location often monopollized eating areas and recreational areas (firepit and sitting areas) for own meals and parties making it impossible for other guests to access this area.  Alcohol was being served at these outside gatherings and the noise level could be heard inside nearby rooms with shouting by these partiers trying to control those who were misehaving while under the influence.  Complained to front desk staff who seemed to be unaware.   Large uses associated with these groups often blocked the entrance to the hotel such that my husband had to stop his car and ask the bus driver to move so he could entre to park.  While housekeeping staff very apparant, security staff, and monitoring of these large groups was not occurring.  There did not appear to be a separate area to manage these groups or feed these groups so they do not interupt service to other guests.  There is NO airport shuttle and they were not ameniable to late checkout again services we have received at other Residence Inn locations in California we have stayed in. Asked for wakeup call 3 mornings and phone never rang. No dishwashing soap for sink and dishwasher provided. Had to ask for toilet paper. Disappointed expected more based on past experience. Was a business and family trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>frankeeper, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Liked the location, neighborhood with lots of shops and close to LAX airport without the noise. Rooms however located in small multiunit buildings requiring that you climb two flights of stairs with bags to second floor units and to walk outside to get back to main building, fitness, or pool.  Disappointed room with two doule instead of queen beds even though plenty of room in same.  Sofa small and room layout (contrary to other RInns we have stayed in with partial kitchen setup such that you cannot see TV with limited counter/table eating space.  Pool and whirlpool on small side.  TV service not working on equipment in fitness rm and went in and out during the day in the room.  Continental breakfast and evening dinners provided (again compared to other Residence Inns we have stayed at) put out small amounts of food items/choices inadequate to serve the quantity of people in line. Dessert choices verey limited and boring.  Large groups of students staying at this location often monopollized eating areas and recreational areas (firepit and sitting areas) for own meals and parties making it impossible for other guests to access this area.  Alcohol was being served at these outside gatherings and the noise level could be heard inside nearby rooms with shouting by these partiers trying to control those who were misehaving while under the influence.  Complained to front desk staff who seemed to be unaware.   Large uses associated with...Liked the location, neighborhood with lots of shops and close to LAX airport without the noise. Rooms however located in small multiunit buildings requiring that you climb two flights of stairs with bags to second floor units and to walk outside to get back to main building, fitness, or pool.  Disappointed room with two doule instead of queen beds even though plenty of room in same.  Sofa small and room layout (contrary to other RInns we have stayed in with partial kitchen setup such that you cannot see TV with limited counter/table eating space.  Pool and whirlpool on small side.  TV service not working on equipment in fitness rm and went in and out during the day in the room.  Continental breakfast and evening dinners provided (again compared to other Residence Inns we have stayed at) put out small amounts of food items/choices inadequate to serve the quantity of people in line. Dessert choices verey limited and boring.  Large groups of students staying at this location often monopollized eating areas and recreational areas (firepit and sitting areas) for own meals and parties making it impossible for other guests to access this area.  Alcohol was being served at these outside gatherings and the noise level could be heard inside nearby rooms with shouting by these partiers trying to control those who were misehaving while under the influence.  Complained to front desk staff who seemed to be unaware.   Large uses associated with these groups often blocked the entrance to the hotel such that my husband had to stop his car and ask the bus driver to move so he could entre to park.  While housekeeping staff very apparant, security staff, and monitoring of these large groups was not occurring.  There did not appear to be a separate area to manage these groups or feed these groups so they do not interupt service to other guests.  There is NO airport shuttle and they were not ameniable to late checkout again services we have received at other Residence Inn locations in California we have stayed in. Asked for wakeup call 3 mornings and phone never rang. No dishwashing soap for sink and dishwasher provided. Had to ask for toilet paper. Disappointed expected more based on past experience. Was a business and family trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r562768616-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>562768616</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>One gripe.....</t>
+  </si>
+  <si>
+    <t>Overall we enjoyed our stay.   Staff was friendly and helpful.  The breakfast spread was pretty nice.   Overall pretty clean/modern.Okay...so let's talk about the TV.   The TV's are set for automatic "global dimming".  What does this mean??  The TV is annoyingly dim, especially when the room is darker.  It was sooooo incredibly annoying when we're trying to watch the Olympics and the TV is not very bright.   I tried to change it but they have that TV on lock-down in "hotel mode" or "commercial mode".    In today's day and age that TV situation was just unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>frankeeper, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Overall we enjoyed our stay.   Staff was friendly and helpful.  The breakfast spread was pretty nice.   Overall pretty clean/modern.Okay...so let's talk about the TV.   The TV's are set for automatic "global dimming".  What does this mean??  The TV is annoyingly dim, especially when the room is darker.  It was sooooo incredibly annoying when we're trying to watch the Olympics and the TV is not very bright.   I tried to change it but they have that TV on lock-down in "hotel mode" or "commercial mode".    In today's day and age that TV situation was just unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r554358352-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>554358352</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Room not clean and poor management customer service</t>
+  </si>
+  <si>
+    <t>•	Early on Christmas day 2017 at about 2:00 AM,  when we first entered the room, we had to run the garbage disposal with dishwashing soap because it had a strong garbage smell as though it had not been run after the last guest;
+•	When I went to take a shower about 3:00 AM, I found two light brown pubic hairs in the bathtub and on the edge behind the shower curtain.  Neither my husband nor I took a shower before I saw the pubic hair;
+•	Because I was tired from a 5-hour flight and time change, I took a shower.  Then, I heard and found a cricket in the kitchen area.  I tried to catch it but could not.
+•	A few minutes later, I was cold so I pulled down the blanket that was encased in plastic and when I opened it, I found 3 long hairs on the blanket!  I have very short hair. 
+•	I reported these issues to the front desk as they happened, expecting that housekeeping would do a better job the next day.  However, the long hair in the blanket was the final straw and I informed the front desk that we were going to leave the next day, even though we were booked for 10 days.
+•	We stayed in this hotel for about 9 hours, 6 hours of which I was trying to find another hotel on Christmas Day...•	Early on Christmas day 2017 at about 2:00 AM,  when we first entered the room, we had to run the garbage disposal with dishwashing soap because it had a strong garbage smell as though it had not been run after the last guest;•	When I went to take a shower about 3:00 AM, I found two light brown pubic hairs in the bathtub and on the edge behind the shower curtain.  Neither my husband nor I took a shower before I saw the pubic hair;•	Because I was tired from a 5-hour flight and time change, I took a shower.  Then, I heard and found a cricket in the kitchen area.  I tried to catch it but could not.•	A few minutes later, I was cold so I pulled down the blanket that was encased in plastic and when I opened it, I found 3 long hairs on the blanket!  I have very short hair. •	I reported these issues to the front desk as they happened, expecting that housekeeping would do a better job the next day.  However, the long hair in the blanket was the final straw and I informed the front desk that we were going to leave the next day, even though we were booked for 10 days.•	We stayed in this hotel for about 9 hours, 6 hours of which I was trying to find another hotel on Christmas Day and discussing the room condition with the acting supervisor.  When brought to their attention, the acting supervisor and general manager approached this situation with such disrespect, arrogance, and contempt.  They basically told me that I was lying because their two best supervisors had checked the room so the issues I brought up could not exist.  Yet, an online review on the hotel’s website on January 5, 2018 mirrors my complaints, specifically about hair in the blanket and management’s lack of follow through after complaints were made to front desk.  In my case, the hotel general manager refused to refund less than $300 for two rooms for the 9 hours that we stayed in the hotel because we did not leave the hotel at about 3:30 AM even though we did not have a place to go and we are almost 70 years old, unused to the cold weather.  We also could not move to another room because I am highly allergic to fragrances and had pre-arranged for our room to specifically be a "green room".   We were appalled at the lack of customer service, particularly on Christmas day!  The general manager, Mr. Godoy, did not even apologize for the condition of the room and implied that my standards for cleanliness were too high.  I am a long-time Marriott guest since before 1990 and am Silver Elite, an indication of the number of times I have stayed at a Marriott property over a period of time.  This Residence Inn on Torrance Street does not meet Marriott’s standards for cleanliness and customer service.  I recommend going a few miles away to the Residence Inn Redondo Beach on Marine Street (not to be confused with this Residence Inn Los Angeles Torrance/Redondo Beach on Torrance Street) where the facilities and customer service are excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>frankeeper, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>•	Early on Christmas day 2017 at about 2:00 AM,  when we first entered the room, we had to run the garbage disposal with dishwashing soap because it had a strong garbage smell as though it had not been run after the last guest;
+•	When I went to take a shower about 3:00 AM, I found two light brown pubic hairs in the bathtub and on the edge behind the shower curtain.  Neither my husband nor I took a shower before I saw the pubic hair;
+•	Because I was tired from a 5-hour flight and time change, I took a shower.  Then, I heard and found a cricket in the kitchen area.  I tried to catch it but could not.
+•	A few minutes later, I was cold so I pulled down the blanket that was encased in plastic and when I opened it, I found 3 long hairs on the blanket!  I have very short hair. 
+•	I reported these issues to the front desk as they happened, expecting that housekeeping would do a better job the next day.  However, the long hair in the blanket was the final straw and I informed the front desk that we were going to leave the next day, even though we were booked for 10 days.
+•	We stayed in this hotel for about 9 hours, 6 hours of which I was trying to find another hotel on Christmas Day...•	Early on Christmas day 2017 at about 2:00 AM,  when we first entered the room, we had to run the garbage disposal with dishwashing soap because it had a strong garbage smell as though it had not been run after the last guest;•	When I went to take a shower about 3:00 AM, I found two light brown pubic hairs in the bathtub and on the edge behind the shower curtain.  Neither my husband nor I took a shower before I saw the pubic hair;•	Because I was tired from a 5-hour flight and time change, I took a shower.  Then, I heard and found a cricket in the kitchen area.  I tried to catch it but could not.•	A few minutes later, I was cold so I pulled down the blanket that was encased in plastic and when I opened it, I found 3 long hairs on the blanket!  I have very short hair. •	I reported these issues to the front desk as they happened, expecting that housekeeping would do a better job the next day.  However, the long hair in the blanket was the final straw and I informed the front desk that we were going to leave the next day, even though we were booked for 10 days.•	We stayed in this hotel for about 9 hours, 6 hours of which I was trying to find another hotel on Christmas Day and discussing the room condition with the acting supervisor.  When brought to their attention, the acting supervisor and general manager approached this situation with such disrespect, arrogance, and contempt.  They basically told me that I was lying because their two best supervisors had checked the room so the issues I brought up could not exist.  Yet, an online review on the hotel’s website on January 5, 2018 mirrors my complaints, specifically about hair in the blanket and management’s lack of follow through after complaints were made to front desk.  In my case, the hotel general manager refused to refund less than $300 for two rooms for the 9 hours that we stayed in the hotel because we did not leave the hotel at about 3:30 AM even though we did not have a place to go and we are almost 70 years old, unused to the cold weather.  We also could not move to another room because I am highly allergic to fragrances and had pre-arranged for our room to specifically be a "green room".   We were appalled at the lack of customer service, particularly on Christmas day!  The general manager, Mr. Godoy, did not even apologize for the condition of the room and implied that my standards for cleanliness were too high.  I am a long-time Marriott guest since before 1990 and am Silver Elite, an indication of the number of times I have stayed at a Marriott property over a period of time.  This Residence Inn on Torrance Street does not meet Marriott’s standards for cleanliness and customer service.  I recommend going a few miles away to the Residence Inn Redondo Beach on Marine Street (not to be confused with this Residence Inn Los Angeles Torrance/Redondo Beach on Torrance Street) where the facilities and customer service are excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r552771357-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>552771357</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Nice place but need oversight</t>
+  </si>
+  <si>
+    <t>Arrived and checked in. Room was not cleaned, though marked as such. Was able to switch rooms. Bed was a bit hard, but was made up for by the amenities. Workout facility was small, but had enough to help maintain. Checkin was quick and easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>frankeeper, Public Relations Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Arrived and checked in. Room was not cleaned, though marked as such. Was able to switch rooms. Bed was a bit hard, but was made up for by the amenities. Workout facility was small, but had enough to help maintain. Checkin was quick and easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r551812494-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>551812494</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Great Location, Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>We stayed in a two bedroom suite for 3 nights. This is an ideal setup for a family of four. Two queen beds, with a kitchen and living room. Right across from the Del Amo mall for all your shopping pleasures. Kids loved it. Close to all the South Bay beaches and attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>We stayed in a two bedroom suite for 3 nights. This is an ideal setup for a family of four. Two queen beds, with a kitchen and living room. Right across from the Del Amo mall for all your shopping pleasures. Kids loved it. Close to all the South Bay beaches and attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r544127204-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>544127204</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Better than expected-great value</t>
+  </si>
+  <si>
+    <t>Our family of four, including 2 teens, stayed here on Thanksgiving eve. We booked a room with 2 double beds and a pull out sofa, so that our 2 teens could have separate beds. Upon entering the room, we were pleasantly surprised to find how large the room was, with a separate bathroom/sink area. We were also pleased to find a good-sized refrigerator and sink area, with a small dining area. This was a blessing, having so much space so that we could all find our private space and minimize family bickering. We were also pleasantly surprised to find a dessert buffet with complimentary beverages. Although  the food quality was not the best, it was a nice touch. Breakfast the following morning was better than expected, with hot cereal, eggs,  bacon, sausage, make your own waffles among the choices. We were also generously allowed to check out at 2:00 rather than 12:00 after management checked their schedules. We found this to be an extraordinary value for our money.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Our family of four, including 2 teens, stayed here on Thanksgiving eve. We booked a room with 2 double beds and a pull out sofa, so that our 2 teens could have separate beds. Upon entering the room, we were pleasantly surprised to find how large the room was, with a separate bathroom/sink area. We were also pleased to find a good-sized refrigerator and sink area, with a small dining area. This was a blessing, having so much space so that we could all find our private space and minimize family bickering. We were also pleasantly surprised to find a dessert buffet with complimentary beverages. Although  the food quality was not the best, it was a nice touch. Breakfast the following morning was better than expected, with hot cereal, eggs,  bacon, sausage, make your own waffles among the choices. We were also generously allowed to check out at 2:00 rather than 12:00 after management checked their schedules. We found this to be an extraordinary value for our money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r543868781-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>543868781</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriott quality </t>
+  </si>
+  <si>
+    <t>You get what you pay for and this place certainly gives you quality and a real nice and comfortable place to stay.I will certainly recommend and stay in this place again when visiting LA.The facilities were awesome, with real well kept grounds, a wonderful breakfast and a real safe feel to the place.The staff were fantastic and I can't find any negative points.MoreShow less</t>
+  </si>
+  <si>
+    <t>You get what you pay for and this place certainly gives you quality and a real nice and comfortable place to stay.I will certainly recommend and stay in this place again when visiting LA.The facilities were awesome, with real well kept grounds, a wonderful breakfast and a real safe feel to the place.The staff were fantastic and I can't find any negative points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r543868777-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>543868777</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>stayed here just for the night of the chargers game. it was really nice and the front desk let us check in super early, like before noon. great service. the breakfast was really good, standard hotel buffet. i did like how they catered to those that frequent the area with chopsticks, rice, and different sauces. theres a few restaurants and shops near by as well. i'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>stayed here just for the night of the chargers game. it was really nice and the front desk let us check in super early, like before noon. great service. the breakfast was really good, standard hotel buffet. i did like how they catered to those that frequent the area with chopsticks, rice, and different sauces. theres a few restaurants and shops near by as well. i'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r538810991-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>538810991</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>quiet and clean</t>
+  </si>
+  <si>
+    <t>we had a family gathering and tried this fine place recently....the free breakfast is delicious and fresh...the room was big and clean, and emphasized recycling, as a bucket was provided for our daily newspaper when finished...another small perk, is the magnet you attach to your door that says no housekeeping needed today, or the other one, asking to return later...it's very quiet, and the gardens are pretty...we didn't have time to try the fitness center, pool, or jacuzzi, but looked good...above all, the staff is super friendly....thx so much!MoreShow less</t>
+  </si>
+  <si>
+    <t>frankeeper, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>we had a family gathering and tried this fine place recently....the free breakfast is delicious and fresh...the room was big and clean, and emphasized recycling, as a bucket was provided for our daily newspaper when finished...another small perk, is the magnet you attach to your door that says no housekeeping needed today, or the other one, asking to return later...it's very quiet, and the gardens are pretty...we didn't have time to try the fitness center, pool, or jacuzzi, but looked good...above all, the staff is super friendly....thx so much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r536441097-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>536441097</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Ideal for visiting LA</t>
+  </si>
+  <si>
+    <t>Rooms are very clean and have a kitchen. Buffet breakfast has lots of choice. Gym has a good selection of equipment. Loved the decor of this hotel. Very modern and fresh. Ideal location for a short drive into LA. Plenty of shops and restaurants near by and close to the beach MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Rooms are very clean and have a kitchen. Buffet breakfast has lots of choice. Gym has a good selection of equipment. Loved the decor of this hotel. Very modern and fresh. Ideal location for a short drive into LA. Plenty of shops and restaurants near by and close to the beach More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r508433611-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>508433611</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>LA experience</t>
+  </si>
+  <si>
+    <t>A great hotel, clean, no elevator to rooms.  We stayed in a 2 bedroom suite.  Upstairs loft with a queen bed, downstairs bedroom with a queen bed, 2 bathrooms, kitchen, pull out sofa in living room with fire place.  Breakfast was very good with a variety of hot and cold choices. Mid week night socials too!  Pool outside and great outdoor lounging area with fire pits, outdoor sofas, and warmers.Front desk staff and housekeeping staff super friendly!I would stay here again,  great job as always, Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>A great hotel, clean, no elevator to rooms.  We stayed in a 2 bedroom suite.  Upstairs loft with a queen bed, downstairs bedroom with a queen bed, 2 bathrooms, kitchen, pull out sofa in living room with fire place.  Breakfast was very good with a variety of hot and cold choices. Mid week night socials too!  Pool outside and great outdoor lounging area with fire pits, outdoor sofas, and warmers.Front desk staff and housekeeping staff super friendly!I would stay here again,  great job as always, Marriott!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r501365210-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>501365210</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Saved our Night :-)</t>
+  </si>
+  <si>
+    <t>Originally booked at a Holiday Inn Express Hawthorne, but they gave away our confirmed reservation. This place was only 10 minutes away, much cleaner and friendlier. Great Breakfast!  Big rooms.  Don't let lack of LAX shuttle worry you. We used Uber for $22 and had great stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Originally booked at a Holiday Inn Express Hawthorne, but they gave away our confirmed reservation. This place was only 10 minutes away, much cleaner and friendlier. Great Breakfast!  Big rooms.  Don't let lack of LAX shuttle worry you. We used Uber for $22 and had great stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r499464112-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>499464112</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Good for Family of 5</t>
+  </si>
+  <si>
+    <t>Typical Residence Inn quality.  Stayed in the second floor room with two bedrooms and two baths.  The first floor has the living room, kitchen and bedroom behind French doors and the second floor is a loft with full staircase and full bath.  Perfect for family vacation.  Torrance is also a great location to see all the LA sights and south also. MoreShow less</t>
+  </si>
+  <si>
+    <t>Typical Residence Inn quality.  Stayed in the second floor room with two bedrooms and two baths.  The first floor has the living room, kitchen and bedroom behind French doors and the second floor is a loft with full staircase and full bath.  Perfect for family vacation.  Torrance is also a great location to see all the LA sights and south also. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r496613750-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>496613750</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Good value, but no so clean</t>
+  </si>
+  <si>
+    <t>Stay several days with my baby and the nanny for work and pleasure.  IS centrally located and the value is good.  Had the opportunity to have two rooms in the same unit that is not easy sometimes.  Amenities at the apartment are good but nothing high level.  The facility had a lot of “wear and tear”  Carpet was celan buth with excessive “deodorant powder” and lot of stains.  Breakfast area at the main building was like a disaster area.  For two nights is ok, but more than that is a big mistake.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Stay several days with my baby and the nanny for work and pleasure.  IS centrally located and the value is good.  Had the opportunity to have two rooms in the same unit that is not easy sometimes.  Amenities at the apartment are good but nothing high level.  The facility had a lot of “wear and tear”  Carpet was celan buth with excessive “deodorant powder” and lot of stains.  Breakfast area at the main building was like a disaster area.  For two nights is ok, but more than that is a big mistake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r484833889-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>484833889</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Good Family Friendly Place</t>
+  </si>
+  <si>
+    <t>This is our third time staying here and once again it worked out perfectly.  Traveling with family, to visit family, using multiple rooms.  Rooms are spacious enough to have visitors and pool and other common areas provide easy gathering areas.  The breakfast had a very good assortment of hot and cold breakfast options.  The recent renovations of the lobby and breakfast area are very nice.  Only reason for 4 rating instead of a 5 is that in my son's unit there was some repairs needed on the door trim.  Sharp pieces had been broken off but where just set back in place and when the door shut these large, sharp pieces fell off.  With a one year old and three year old in that unit we were happy the parents found it before the little ones.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This is our third time staying here and once again it worked out perfectly.  Traveling with family, to visit family, using multiple rooms.  Rooms are spacious enough to have visitors and pool and other common areas provide easy gathering areas.  The breakfast had a very good assortment of hot and cold breakfast options.  The recent renovations of the lobby and breakfast area are very nice.  Only reason for 4 rating instead of a 5 is that in my son's unit there was some repairs needed on the door trim.  Sharp pieces had been broken off but where just set back in place and when the door shut these large, sharp pieces fell off.  With a one year old and three year old in that unit we were happy the parents found it before the little ones.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r481916957-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>481916957</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Worst stay iv'e ever had!</t>
+  </si>
+  <si>
+    <t>Let me start off by saying ive worked for Marriott as a front desk agent for 4 years so i know how customer service is suppose to be and let me just say it was the most crappiest customer service ive ever had, upon check in the FDA charged me for the stay right then and there not only that but made me put a $250 deposit down, 1st off i did night audit so i know customers dont get charged for their stays until the night before check out 2nd ive never heard of being charged a $250 deposit!!!!!!!!! Usually we just have to hold a card for incidentals and such. I felt like he was being very prejudice towards me just cause i was black. Second as soon as we walk into the room it smells like wet dog! So i call the front desk and speak to the same FDA that checked me in and all he does is sends someone by with some air freshener, as my wife goes to shower she grabs a face towel and sees this black stain on it! And it reeks of dog! All the towels in the room smell! And shortly after the room starts smelling like Dog again, So i call up again and speak to the same FDA and demand he does something and all he says is sorry with no remorse and all he does is sends...Let me start off by saying ive worked for Marriott as a front desk agent for 4 years so i know how customer service is suppose to be and let me just say it was the most crappiest customer service ive ever had, upon check in the FDA charged me for the stay right then and there not only that but made me put a $250 deposit down, 1st off i did night audit so i know customers dont get charged for their stays until the night before check out 2nd ive never heard of being charged a $250 deposit!!!!!!!!! Usually we just have to hold a card for incidentals and such. I felt like he was being very prejudice towards me just cause i was black. Second as soon as we walk into the room it smells like wet dog! So i call the front desk and speak to the same FDA that checked me in and all he does is sends someone by with some air freshener, as my wife goes to shower she grabs a face towel and sees this black stain on it! And it reeks of dog! All the towels in the room smell! And shortly after the room starts smelling like Dog again, So i call up again and speak to the same FDA and demand he does something and all he says is sorry with no remorse and all he does is sends me new towels and more air freshener. By this time im already fed up with the whole thing so i go to target and buy plug in air fresheners! Housekeepers need to be retrained on cleaning techniques and FDA needs to learn how not to be complete pricks. If i could give 0 stars i would.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Let me start off by saying ive worked for Marriott as a front desk agent for 4 years so i know how customer service is suppose to be and let me just say it was the most crappiest customer service ive ever had, upon check in the FDA charged me for the stay right then and there not only that but made me put a $250 deposit down, 1st off i did night audit so i know customers dont get charged for their stays until the night before check out 2nd ive never heard of being charged a $250 deposit!!!!!!!!! Usually we just have to hold a card for incidentals and such. I felt like he was being very prejudice towards me just cause i was black. Second as soon as we walk into the room it smells like wet dog! So i call the front desk and speak to the same FDA that checked me in and all he does is sends someone by with some air freshener, as my wife goes to shower she grabs a face towel and sees this black stain on it! And it reeks of dog! All the towels in the room smell! And shortly after the room starts smelling like Dog again, So i call up again and speak to the same FDA and demand he does something and all he says is sorry with no remorse and all he does is sends...Let me start off by saying ive worked for Marriott as a front desk agent for 4 years so i know how customer service is suppose to be and let me just say it was the most crappiest customer service ive ever had, upon check in the FDA charged me for the stay right then and there not only that but made me put a $250 deposit down, 1st off i did night audit so i know customers dont get charged for their stays until the night before check out 2nd ive never heard of being charged a $250 deposit!!!!!!!!! Usually we just have to hold a card for incidentals and such. I felt like he was being very prejudice towards me just cause i was black. Second as soon as we walk into the room it smells like wet dog! So i call the front desk and speak to the same FDA that checked me in and all he does is sends someone by with some air freshener, as my wife goes to shower she grabs a face towel and sees this black stain on it! And it reeks of dog! All the towels in the room smell! And shortly after the room starts smelling like Dog again, So i call up again and speak to the same FDA and demand he does something and all he says is sorry with no remorse and all he does is sends me new towels and more air freshener. By this time im already fed up with the whole thing so i go to target and buy plug in air fresheners! Housekeepers need to be retrained on cleaning techniques and FDA needs to learn how not to be complete pricks. If i could give 0 stars i would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r481774716-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>481774716</t>
+  </si>
+  <si>
+    <t>Great hotel and value for money</t>
+  </si>
+  <si>
+    <t>The hotel is great and the location fantastic.Rooms are super clean, pets are allowed here but no smell whatsoever in the room. It looks like the rooms have recently being renovated with very good taste. They are very comfortable with everything you might need provided. Breakfast is good and you can take it to your room if you like. Amenities are also good and well looked after. Del Amo shopping centre is very close by. I would definitely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is great and the location fantastic.Rooms are super clean, pets are allowed here but no smell whatsoever in the room. It looks like the rooms have recently being renovated with very good taste. They are very comfortable with everything you might need provided. Breakfast is good and you can take it to your room if you like. Amenities are also good and well looked after. Del Amo shopping centre is very close by. I would definitely stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r473697444-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>473697444</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Roomy Suites</t>
+  </si>
+  <si>
+    <t>Stayed a few days for business - was MORE than enough space with king bed, couch, etc.  Full kitchen and a separate bathroom/vanity was nice as well.  Breakfast was very good with LOTs of choices (all free of course) location is great - very close to second largest mall in America with PLENTY of restaurant choices.  Great value all around.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Stayed a few days for business - was MORE than enough space with king bed, couch, etc.  Full kitchen and a separate bathroom/vanity was nice as well.  Breakfast was very good with LOTs of choices (all free of course) location is great - very close to second largest mall in America with PLENTY of restaurant choices.  Great value all around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r469650137-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>469650137</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely Amazing </t>
+  </si>
+  <si>
+    <t>This hotel has definitely been my favorite out of all the ones on my 2 week trip. We stayed here for 3 nights, and I absolutely loved it and don't want to leave. The room is very spacious for 3 people. The bathroom is separate which is very helpful. The kitchen is full size and very nice. The room is quiet other than some road noise because we're right be the road but that's just our building and I don't mind road noise because I grew up in a big town so I like it. The breakfast is really good and stuff is very friendly. All around an excellent stay, Might come back to Torrance soon just to stay in this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has definitely been my favorite out of all the ones on my 2 week trip. We stayed here for 3 nights, and I absolutely loved it and don't want to leave. The room is very spacious for 3 people. The bathroom is separate which is very helpful. The kitchen is full size and very nice. The room is quiet other than some road noise because we're right be the road but that's just our building and I don't mind road noise because I grew up in a big town so I like it. The breakfast is really good and stuff is very friendly. All around an excellent stay, Might come back to Torrance soon just to stay in this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r464824245-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>464824245</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Great location and breakfast included!</t>
+  </si>
+  <si>
+    <t>This was a wonderful surprise when we arrived, I do not usually book online and was wondering what we should expect. This is a great place for a family or a group of friends. We were very comfortable and had a great breakfast each morning with lots of options for a vegan. This is also walkable to a very large shopping mall too big to see all the stores in it. We were visiting family and this worked out very well and a good price as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>This was a wonderful surprise when we arrived, I do not usually book online and was wondering what we should expect. This is a great place for a family or a group of friends. We were very comfortable and had a great breakfast each morning with lots of options for a vegan. This is also walkable to a very large shopping mall too big to see all the stores in it. We were visiting family and this worked out very well and a good price as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r455303690-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>455303690</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Poor remodeling, not yet finished</t>
+  </si>
+  <si>
+    <t>If you plan on a long stay prepared to move because remodeling is still going on.  It will probably continue for a long time since they are doing a little bit at a time.  We were told that our room had completed remodeling but a months later we were told to move because they recently got funding to replace the bathtubs.  They were not in good condition when we first checked in.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>If you plan on a long stay prepared to move because remodeling is still going on.  It will probably continue for a long time since they are doing a little bit at a time.  We were told that our room had completed remodeling but a months later we were told to move because they recently got funding to replace the bathtubs.  They were not in good condition when we first checked in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r455046353-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>455046353</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Excellent room with amenities for extended stay</t>
+  </si>
+  <si>
+    <t>The room was perfect in size for just me traveling.  It had a very comfortable bed, desk for working and a kitchenette was could be used to cook a real meal.  The facility and room were quiet; even with a baby next door.  Only things not making this excellent was the lack of parking.  That should be solved when they are finished with the remodeling as the construction material is taking up many spots.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was perfect in size for just me traveling.  It had a very comfortable bed, desk for working and a kitchenette was could be used to cook a real meal.  The facility and room were quiet; even with a baby next door.  Only things not making this excellent was the lack of parking.  That should be solved when they are finished with the remodeling as the construction material is taking up many spots.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r454277904-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>454277904</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Nice Penthouse Suite</t>
+  </si>
+  <si>
+    <t>Had a great stay at this location. Four of us were very comfortable in this room; one loft bedroom upstairs with bath, one closed door bedroom downstairs with bath, and one pull out couch (small) in living room. Kitchen is fully equipped with oven and refrigerator. Property was being renovated but didn't bother us. Room was clean. Only con is that breakfast was very tasty except for waffles. Will stay again if back in area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a great stay at this location. Four of us were very comfortable in this room; one loft bedroom upstairs with bath, one closed door bedroom downstairs with bath, and one pull out couch (small) in living room. Kitchen is fully equipped with oven and refrigerator. Property was being renovated but didn't bother us. Room was clean. Only con is that breakfast was very tasty except for waffles. Will stay again if back in area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r440629814-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>440629814</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Affordable, comfortable, clean home base in Los Angeles</t>
+  </si>
+  <si>
+    <t>Just spent 3 nights at the Residence Inn Torrance/Redondo Beach while visiting my daughter for Thanksgiving. Overall it was a very pleasant experience. The hotel is set up like a garden style condo complex with paths meandering through the units to get you to the pool, outdoor eating/grilling area, and the main building. Our room was recently remodeled and had a queen bed, sofa, tv, and fully equipped "kitchen" with full sized fridge, stove, oven and micro wave. Really nice feature had we stayed in the area longer. The breakfast was an unexpected and pleasant surprise. Perhaps the most diverse "free breakfast" I've experienced at these chain hotels - scrambled eggs, sausage, bacon, fruit, sausage/gravy/biscuits, pancakes, cereal, etc. They even had a beer/pizza reception the night we arrived. Staff were friendly and helpful. The hotel is going through a renovation and the parking area is full of excess furniture and work crews...but the only challenge this presented us was getting a parking spot one night and navigating around one of the large trucks. Overall we found our stay to be very pleasant. Would definitely recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Just spent 3 nights at the Residence Inn Torrance/Redondo Beach while visiting my daughter for Thanksgiving. Overall it was a very pleasant experience. The hotel is set up like a garden style condo complex with paths meandering through the units to get you to the pool, outdoor eating/grilling area, and the main building. Our room was recently remodeled and had a queen bed, sofa, tv, and fully equipped "kitchen" with full sized fridge, stove, oven and micro wave. Really nice feature had we stayed in the area longer. The breakfast was an unexpected and pleasant surprise. Perhaps the most diverse "free breakfast" I've experienced at these chain hotels - scrambled eggs, sausage, bacon, fruit, sausage/gravy/biscuits, pancakes, cereal, etc. They even had a beer/pizza reception the night we arrived. Staff were friendly and helpful. The hotel is going through a renovation and the parking area is full of excess furniture and work crews...but the only challenge this presented us was getting a parking spot one night and navigating around one of the large trucks. Overall we found our stay to be very pleasant. Would definitely recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r430943764-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>430943764</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay in every way.</t>
+  </si>
+  <si>
+    <t>We stayed here for 6 nights at the start of our LA vacation. Family of 4 we had a 2 bedroom suite which was excellent. Great location and as a base for LA we found it to be excellent. Easy access to all freeways close at had. Highlight had to be the buffet breakfast each day, fresh, ample and the choice was amazing. Everyday we enjoyed a great start to the day. Lovely building and staff were all excellent. Location has multiple takeaway options very close at hand, we had Panda Express, Dominos and various others all within 2/3 minute drive. Free safe parking was great and never an issue. Fantastic grounds and seated areas around the firepit. Overall we loved it and would return. We spent 16 nights travelling through California and Nevada and stayed at 5 hotels during this time, this was the best overall. Great place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for 6 nights at the start of our LA vacation. Family of 4 we had a 2 bedroom suite which was excellent. Great location and as a base for LA we found it to be excellent. Easy access to all freeways close at had. Highlight had to be the buffet breakfast each day, fresh, ample and the choice was amazing. Everyday we enjoyed a great start to the day. Lovely building and staff were all excellent. Location has multiple takeaway options very close at hand, we had Panda Express, Dominos and various others all within 2/3 minute drive. Free safe parking was great and never an issue. Fantastic grounds and seated areas around the firepit. Overall we loved it and would return. We spent 16 nights travelling through California and Nevada and stayed at 5 hotels during this time, this was the best overall. Great place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r427520636-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>427520636</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Nice stay for the price</t>
+  </si>
+  <si>
+    <t>We stayed here four nights over the extended Labor Day weekend - visiting for a family wedding.  Our room was clean with a comfortable bed.  We had a minor issue with the room and the hotel staff addressed it immediately.  We spoke with reception associates several times and they were always friendly and hospitable.  While clean, our room definitely shows age spots but that didn't affect our stay.  I think that the bathroom was recently updated with new shower and toilet so it was very clean.The reception building (also has guest  lounge, meeting area, breakfast buffet, computer station and fitness room) was recently remodeled; very clean and comfortable with nice furniture.  We used the fitness room each morning, all equipment worked properly.  The breakfast buffet is quite extensive featuring scrambled eggs, breakfast meats, waffle makers, hot oatmeal and all of the cold items you might expect.  Very nice!The hotel is spread across a large footprint with rooms and suites being in separate two-story buildings, like pods.  Each has plenty of free parking and easy access.  I recommend this hotel because it offers good value for the price, especially considering the free breakfast and parking.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We stayed here four nights over the extended Labor Day weekend - visiting for a family wedding.  Our room was clean with a comfortable bed.  We had a minor issue with the room and the hotel staff addressed it immediately.  We spoke with reception associates several times and they were always friendly and hospitable.  While clean, our room definitely shows age spots but that didn't affect our stay.  I think that the bathroom was recently updated with new shower and toilet so it was very clean.The reception building (also has guest  lounge, meeting area, breakfast buffet, computer station and fitness room) was recently remodeled; very clean and comfortable with nice furniture.  We used the fitness room each morning, all equipment worked properly.  The breakfast buffet is quite extensive featuring scrambled eggs, breakfast meats, waffle makers, hot oatmeal and all of the cold items you might expect.  Very nice!The hotel is spread across a large footprint with rooms and suites being in separate two-story buildings, like pods.  Each has plenty of free parking and easy access.  I recommend this hotel because it offers good value for the price, especially considering the free breakfast and parking.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r422126434-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>422126434</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, Safe, Convenient Location with Plenty of Amenities</t>
+  </si>
+  <si>
+    <t>When we registered to attend the LA International Ukulele Festival this September I was delighted to learn that they recommended the nearby Torrance Marriott's Residence Inn as the hotel of choice for attendees.  I always look forward to an opportunity to stay at a Marriott's.  
+   We arrived Friday late afternoon and at check in we met Shani at the front desk.  She was delightful!!  Just the person to lift our spirits after a long, long drive through LA traffic.  Shani was knowledgeable, efficient, professional, and very personable.  Even though we were road weary and tired, very soon Shani had us laughing and feeling right at home.  She got us checked into a very comfortable two bedroom, two bath penthouse with a full kitchen.  Also worth noting is that the Torrance Residence Inn had plenty of free parking right in front of our room with large spaces so your car doesn't get dings and there was free wifi. 
+   There are several dining options right across from the Residence Inn at the Del Amo Fashion Center. We had a wonderful meal at Frida's Mexican Cuisine.  Four of our friends that had arrived earlier at the Residence Inn went to the nearby Redondo Beach Pier and said they enjoyed that.  We all had breakfast together at the Residence Inn on Saturday morning before going to the ukulele festival which was just a couple of minutes away at the Convention Center.
+  The Torrance Residence...   When we registered to attend the LA International Ukulele Festival this September I was delighted to learn that they recommended the nearby Torrance Marriott's Residence Inn as the hotel of choice for attendees.  I always look forward to an opportunity to stay at a Marriott's.     We arrived Friday late afternoon and at check in we met Shani at the front desk.  She was delightful!!  Just the person to lift our spirits after a long, long drive through LA traffic.  Shani was knowledgeable, efficient, professional, and very personable.  Even though we were road weary and tired, very soon Shani had us laughing and feeling right at home.  She got us checked into a very comfortable two bedroom, two bath penthouse with a full kitchen.  Also worth noting is that the Torrance Residence Inn had plenty of free parking right in front of our room with large spaces so your car doesn't get dings and there was free wifi.    There are several dining options right across from the Residence Inn at the Del Amo Fashion Center. We had a wonderful meal at Frida's Mexican Cuisine.  Four of our friends that had arrived earlier at the Residence Inn went to the nearby Redondo Beach Pier and said they enjoyed that.  We all had breakfast together at the Residence Inn on Saturday morning before going to the ukulele festival which was just a couple of minutes away at the Convention Center.  The Torrance Residence Inn is an older facility but it's well maintained, very comfortably appointed (I got the best night's sleep I've had in a long time), it's quiet and safe and the staff is wonderful!MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>When we registered to attend the LA International Ukulele Festival this September I was delighted to learn that they recommended the nearby Torrance Marriott's Residence Inn as the hotel of choice for attendees.  I always look forward to an opportunity to stay at a Marriott's.  
+   We arrived Friday late afternoon and at check in we met Shani at the front desk.  She was delightful!!  Just the person to lift our spirits after a long, long drive through LA traffic.  Shani was knowledgeable, efficient, professional, and very personable.  Even though we were road weary and tired, very soon Shani had us laughing and feeling right at home.  She got us checked into a very comfortable two bedroom, two bath penthouse with a full kitchen.  Also worth noting is that the Torrance Residence Inn had plenty of free parking right in front of our room with large spaces so your car doesn't get dings and there was free wifi. 
+   There are several dining options right across from the Residence Inn at the Del Amo Fashion Center. We had a wonderful meal at Frida's Mexican Cuisine.  Four of our friends that had arrived earlier at the Residence Inn went to the nearby Redondo Beach Pier and said they enjoyed that.  We all had breakfast together at the Residence Inn on Saturday morning before going to the ukulele festival which was just a couple of minutes away at the Convention Center.
+  The Torrance Residence...   When we registered to attend the LA International Ukulele Festival this September I was delighted to learn that they recommended the nearby Torrance Marriott's Residence Inn as the hotel of choice for attendees.  I always look forward to an opportunity to stay at a Marriott's.     We arrived Friday late afternoon and at check in we met Shani at the front desk.  She was delightful!!  Just the person to lift our spirits after a long, long drive through LA traffic.  Shani was knowledgeable, efficient, professional, and very personable.  Even though we were road weary and tired, very soon Shani had us laughing and feeling right at home.  She got us checked into a very comfortable two bedroom, two bath penthouse with a full kitchen.  Also worth noting is that the Torrance Residence Inn had plenty of free parking right in front of our room with large spaces so your car doesn't get dings and there was free wifi.    There are several dining options right across from the Residence Inn at the Del Amo Fashion Center. We had a wonderful meal at Frida's Mexican Cuisine.  Four of our friends that had arrived earlier at the Residence Inn went to the nearby Redondo Beach Pier and said they enjoyed that.  We all had breakfast together at the Residence Inn on Saturday morning before going to the ukulele festival which was just a couple of minutes away at the Convention Center.  The Torrance Residence Inn is an older facility but it's well maintained, very comfortably appointed (I got the best night's sleep I've had in a long time), it's quiet and safe and the staff is wonderful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r421934024-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>421934024</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Great if you get a refurbed room!</t>
+  </si>
+  <si>
+    <t>Massive project-first the outside which was done nicely!  Great landscaping and cottage style.  Fantastic outside sitting area with fire pit.New, open, and inviting lobby.  Great food at night Monday-Wednesday.  Good breakfast in the morning.  Not real fakey tasking. Great staff.  Short distance to the beach and the airport. We had an old suite and it was not nice but would be soon changed.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Owner at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Massive project-first the outside which was done nicely!  Great landscaping and cottage style.  Fantastic outside sitting area with fire pit.New, open, and inviting lobby.  Great food at night Monday-Wednesday.  Good breakfast in the morning.  Not real fakey tasking. Great staff.  Short distance to the beach and the airport. We had an old suite and it was not nice but would be soon changed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r420710480-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>420710480</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Family friendly!</t>
+  </si>
+  <si>
+    <t>Great location as long as you have a hire car. Has a kitchen so you can do your own food if you wish. Clean, comfortable, nice pool and spa, BBQ and fire pit.Close to good shoppingStaff were extremely helpfulMoreShow less</t>
+  </si>
+  <si>
+    <t>Great location as long as you have a hire car. Has a kitchen so you can do your own food if you wish. Clean, comfortable, nice pool and spa, BBQ and fire pit.Close to good shoppingStaff were extremely helpfulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r400779386-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>400779386</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel, being modernized as I write this. Location is a few miles from the beach. Rooms are nice, more apartment like, and large as this is for extended stays. Wonderful breakfast that comes with your stay, free parking, fridge, ice maker, microwave, cook-top and dishwasher. I will address 2 concerns I read on reviews:1. Parking - there is plenty of parking, maybe not right on top of your room, but there are spots. Weekends the hotel had security to make sure no non-guests parked.2. Breakfast - outstanding...they may run out of something for a few minutes but more was always brought out.Evenings....some days the hotel had free BBQ...beer, wine, burgers....WOW.Very quiet...never heard a sound outside. Grounds are nice and kept clean. Rooms clean.One downside: Smoking....this is not a non-smoking hotel...you can sometimes smell smoke from other units. Ask for a non-smoking room. Unreal that in 2016 people can smoke inside rooms!!! Bad policy.Minor- we had an updated room. Need to update the bathroom a bit more...all new but left an old banged up door, handles different colors, water faucets not matching on tub and old, some rusting....but the entire room was new. Very minor, but if you are going to fix up a room, do it right.Hint: Ask for extra bathtowels...only leave 2.Would stay here again.Stayed July 2016MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, being modernized as I write this. Location is a few miles from the beach. Rooms are nice, more apartment like, and large as this is for extended stays. Wonderful breakfast that comes with your stay, free parking, fridge, ice maker, microwave, cook-top and dishwasher. I will address 2 concerns I read on reviews:1. Parking - there is plenty of parking, maybe not right on top of your room, but there are spots. Weekends the hotel had security to make sure no non-guests parked.2. Breakfast - outstanding...they may run out of something for a few minutes but more was always brought out.Evenings....some days the hotel had free BBQ...beer, wine, burgers....WOW.Very quiet...never heard a sound outside. Grounds are nice and kept clean. Rooms clean.One downside: Smoking....this is not a non-smoking hotel...you can sometimes smell smoke from other units. Ask for a non-smoking room. Unreal that in 2016 people can smoke inside rooms!!! Bad policy.Minor- we had an updated room. Need to update the bathroom a bit more...all new but left an old banged up door, handles different colors, water faucets not matching on tub and old, some rusting....but the entire room was new. Very minor, but if you are going to fix up a room, do it right.Hint: Ask for extra bathtowels...only leave 2.Would stay here again.Stayed July 2016More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r398023713-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>398023713</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Property is very run down!</t>
+  </si>
+  <si>
+    <t>This hotel is too old down, the door didn't close properly! I was travelling alone and was so worried at night bcos the door could be easily broke in! The only renovated part of the hotel is the main lobby!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This hotel is too old down, the door didn't close properly! I was travelling alone and was so worried at night bcos the door could be easily broke in! The only renovated part of the hotel is the main lobby!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r397724133-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>397724133</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay,  friendly staff </t>
+  </si>
+  <si>
+    <t>We stayed here for seven days for vacation.   Everyone said don't stay in Torrance but it's where our Marriott points worked.   It was actually a great location,  we were within 20-40 minutes of the battleship Iowa,  Abolone Cove,  Cabrillo Aquarium,  Santa Monica Pier,  Science Museum and more.   Traffic wasn't bad and the beach was just a few miles away. The room was a bit dated but spotless,  kitchen well stocked.   In the mad rush to the airport we managed to forget our toiletry bag (for five people)  and they provided everything we needed.  Hot breakfast was good with lots of variety.   Pool was little,  but with Redondo beach within minutes we rarely used it.  Nice fire pit that was lit nightly.   It was in an area we felt safe,  we walked to several local restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for seven days for vacation.   Everyone said don't stay in Torrance but it's where our Marriott points worked.   It was actually a great location,  we were within 20-40 minutes of the battleship Iowa,  Abolone Cove,  Cabrillo Aquarium,  Santa Monica Pier,  Science Museum and more.   Traffic wasn't bad and the beach was just a few miles away. The room was a bit dated but spotless,  kitchen well stocked.   In the mad rush to the airport we managed to forget our toiletry bag (for five people)  and they provided everything we needed.  Hot breakfast was good with lots of variety.   Pool was little,  but with Redondo beach within minutes we rarely used it.  Nice fire pit that was lit nightly.   It was in an area we felt safe,  we walked to several local restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r393782253-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>393782253</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Stayed here in late September 2015. The hotel was a very good, we were happy for out stay there. The room was spacious, kitchen very well equipped and bed comfortable. Room was a bit dark (ground floor room) but it didn't matter since it was close to the pool area, so plenty of sun just a few steps away. Parking was a bit crowded. Housekeeping was very good and all the staff was so friendly and helpful! Pool area was very nice also, not crowded and well kept. Didn't use the barbeque facilities but it was a nice are to sit at night. Breakfast was good, sometimes bit crowded and some items were out if you arrived late. Breakfast area also was a bit crowded at downstairs (upstairs more tables so we chose to enjoy our breakfast there, really nice area there). Think the location was excellent: big mall really close and also supermarkets and places to eat. Not far from Redondo beach, short drive to there also. Do recommend this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Stayed here in late September 2015. The hotel was a very good, we were happy for out stay there. The room was spacious, kitchen very well equipped and bed comfortable. Room was a bit dark (ground floor room) but it didn't matter since it was close to the pool area, so plenty of sun just a few steps away. Parking was a bit crowded. Housekeeping was very good and all the staff was so friendly and helpful! Pool area was very nice also, not crowded and well kept. Didn't use the barbeque facilities but it was a nice are to sit at night. Breakfast was good, sometimes bit crowded and some items were out if you arrived late. Breakfast area also was a bit crowded at downstairs (upstairs more tables so we chose to enjoy our breakfast there, really nice area there). Think the location was excellent: big mall really close and also supermarkets and places to eat. Not far from Redondo beach, short drive to there also. Do recommend this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r391346364-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>391346364</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Wedding Stay</t>
+  </si>
+  <si>
+    <t>We rented 3 rooms for our family of 8 while attending a wedding. I found the staff to be incredibly courteous and attentive to our needs. The rooms are going through a remodeling process, but they are very attentive not interrupt your stay. The two double bed rooms were very large. We also had a 2bdr &amp; 2 bath unit with a loft.  The loft doesn't really provide much privacy, but the extra bathroom came in handy while getting ready for the wedding. I found the location to be extremely convenient to shopping, Restaurants and the beach. This is an extremely large Residence Inn so make sure you get to breakfast early or all the good stuff will be gone.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We rented 3 rooms for our family of 8 while attending a wedding. I found the staff to be incredibly courteous and attentive to our needs. The rooms are going through a remodeling process, but they are very attentive not interrupt your stay. The two double bed rooms were very large. We also had a 2bdr &amp; 2 bath unit with a loft.  The loft doesn't really provide much privacy, but the extra bathroom came in handy while getting ready for the wedding. I found the location to be extremely convenient to shopping, Restaurants and the beach. This is an extremely large Residence Inn so make sure you get to breakfast early or all the good stuff will be gone.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r389226993-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>389226993</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Stayed for a week with the kids. Staff especially housekeeping is super nice and friendly.  Rooms and spacious and clean (light odor - probably cleaning chemicals). Breakfast is fabulous, kids love their waffles... but go early around 7am especially on a holiday weekend otherwise selection will be limited.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Stayed for a week with the kids. Staff especially housekeeping is super nice and friendly.  Rooms and spacious and clean (light odor - probably cleaning chemicals). Breakfast is fabulous, kids love their waffles... but go early around 7am especially on a holiday weekend otherwise selection will be limited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r380416080-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>380416080</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Stay for a night on the way to San Diego</t>
+  </si>
+  <si>
+    <t>Nice place tucked away with great staff. Some construction but they are very aware to ensure it does not infringe on the guests. Moments away from Redondo Beach where I could spend each and every day! Great rates and they continue to make good enhancements! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>frankeeper, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Nice place tucked away with great staff. Some construction but they are very aware to ensure it does not infringe on the guests. Moments away from Redondo Beach where I could spend each and every day! Great rates and they continue to make good enhancements! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r379519216-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>379519216</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Basic amenities but clean and comfortable</t>
+  </si>
+  <si>
+    <t>When I walked into my suite I got the impression it was formerly a large studio apartment that was converted to a hotel room. It was one large room with a bed at one end and a living area (sofa, chair, table, TV) at the other. There's a small kitchen with the usual amenities (microwave, coffeemaker, range, etc) and the vanity/bathroom was spacious (albeit a little outdated). At the end of the day, this isn't a luxury property or a full-service Marriott but it will be a clean, comfortable place to sleep. If you're familiar with Marriott's Courtyard brand it's very similar in finishings to that - same bed, same soaps/shampoos, etc.Note - I stayed here as I just needed a place to stay in between an evening flight arriving at LAX with an early morning flight the next day. This property was about 15ish minutes from the airport - not the closest but it wasn't so far that it was inconvenient either.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>When I walked into my suite I got the impression it was formerly a large studio apartment that was converted to a hotel room. It was one large room with a bed at one end and a living area (sofa, chair, table, TV) at the other. There's a small kitchen with the usual amenities (microwave, coffeemaker, range, etc) and the vanity/bathroom was spacious (albeit a little outdated). At the end of the day, this isn't a luxury property or a full-service Marriott but it will be a clean, comfortable place to sleep. If you're familiar with Marriott's Courtyard brand it's very similar in finishings to that - same bed, same soaps/shampoos, etc.Note - I stayed here as I just needed a place to stay in between an evening flight arriving at LAX with an early morning flight the next day. This property was about 15ish minutes from the airport - not the closest but it wasn't so far that it was inconvenient either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r378809631-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>378809631</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Place to Stay with Family and Friends </t>
+  </si>
+  <si>
+    <t>We book a 2 room suite and it was wonderful, the rooms didn't look renovated but the amenities were great. The hotel staff was helpful and courteous. The breakfast they provide is great for adults and kids and has great options. I would love stay in Residence Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We book a 2 room suite and it was wonderful, the rooms didn't look renovated but the amenities were great. The hotel staff was helpful and courteous. The breakfast they provide is great for adults and kids and has great options. I would love stay in Residence Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r374710571-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>374710571</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Not again</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn hotel for 3 nights for business purposes. The hotel was very loud with upstairs guests walking around their room, sound like they are going to come through my ceiling. The first room they gave me smelled like cigarette smoke so I went back to the front desk to ask for another room. The staff was extremely helpful and gave me another room without any attitude or problem. The next room I had was fine, not as nice as the first room but didn't smell of smoke. The hotel is in the middle of construction so lots of noise and activity from that work. I originally parked my car in front of my room but the construction workers were playing football/catch in the parking lot, very close to the cars so I parked in the back of the hotel. I wasn't comfortable with my car in the back, without having any eyes on it so I moved it to the very front of the hotel, near the concierge/front desk. A couple of times, the key card didn't work in my door so I had to walk back and forth to the front desk. One occasion, I had to walk back and forth three times before they got it straightened out. I will not be returning to this hotel as it seemed more like a party hotel (people showing up with cases of beer and smoking...I stayed at the Residence Inn hotel for 3 nights for business purposes. The hotel was very loud with upstairs guests walking around their room, sound like they are going to come through my ceiling. The first room they gave me smelled like cigarette smoke so I went back to the front desk to ask for another room. The staff was extremely helpful and gave me another room without any attitude or problem. The next room I had was fine, not as nice as the first room but didn't smell of smoke. The hotel is in the middle of construction so lots of noise and activity from that work. I originally parked my car in front of my room but the construction workers were playing football/catch in the parking lot, very close to the cars so I parked in the back of the hotel. I wasn't comfortable with my car in the back, without having any eyes on it so I moved it to the very front of the hotel, near the concierge/front desk. A couple of times, the key card didn't work in my door so I had to walk back and forth to the front desk. One occasion, I had to walk back and forth three times before they got it straightened out. I will not be returning to this hotel as it seemed more like a party hotel (people showing up with cases of beer and smoking in rooms) and I didn't feel terribly safe walking the grounds. The breakfast was fantastic and they offer light refreshments and wine (?) in the evenings. They have a FANTASTIC fire pit and BBQ area and I understand that they have a pretty great gym. Hopefully the construction will be done soon and they can focus on enforcing their non-smoking rules. MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn hotel for 3 nights for business purposes. The hotel was very loud with upstairs guests walking around their room, sound like they are going to come through my ceiling. The first room they gave me smelled like cigarette smoke so I went back to the front desk to ask for another room. The staff was extremely helpful and gave me another room without any attitude or problem. The next room I had was fine, not as nice as the first room but didn't smell of smoke. The hotel is in the middle of construction so lots of noise and activity from that work. I originally parked my car in front of my room but the construction workers were playing football/catch in the parking lot, very close to the cars so I parked in the back of the hotel. I wasn't comfortable with my car in the back, without having any eyes on it so I moved it to the very front of the hotel, near the concierge/front desk. A couple of times, the key card didn't work in my door so I had to walk back and forth to the front desk. One occasion, I had to walk back and forth three times before they got it straightened out. I will not be returning to this hotel as it seemed more like a party hotel (people showing up with cases of beer and smoking...I stayed at the Residence Inn hotel for 3 nights for business purposes. The hotel was very loud with upstairs guests walking around their room, sound like they are going to come through my ceiling. The first room they gave me smelled like cigarette smoke so I went back to the front desk to ask for another room. The staff was extremely helpful and gave me another room without any attitude or problem. The next room I had was fine, not as nice as the first room but didn't smell of smoke. The hotel is in the middle of construction so lots of noise and activity from that work. I originally parked my car in front of my room but the construction workers were playing football/catch in the parking lot, very close to the cars so I parked in the back of the hotel. I wasn't comfortable with my car in the back, without having any eyes on it so I moved it to the very front of the hotel, near the concierge/front desk. A couple of times, the key card didn't work in my door so I had to walk back and forth to the front desk. One occasion, I had to walk back and forth three times before they got it straightened out. I will not be returning to this hotel as it seemed more like a party hotel (people showing up with cases of beer and smoking in rooms) and I didn't feel terribly safe walking the grounds. The breakfast was fantastic and they offer light refreshments and wine (?) in the evenings. They have a FANTASTIC fire pit and BBQ area and I understand that they have a pretty great gym. Hopefully the construction will be done soon and they can focus on enforcing their non-smoking rules. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r373072216-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>373072216</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>A comfortable place for a long stay</t>
+  </si>
+  <si>
+    <t>I stayed with my family for 3 week at this hotel and it was perfect. The rooms are comfortable with a smal kitchen that was perfect for my kids meals. The hotel had a delicious breakfast included. At check inn choose a room at first floor because of luggages.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>I stayed with my family for 3 week at this hotel and it was perfect. The rooms are comfortable with a smal kitchen that was perfect for my kids meals. The hotel had a delicious breakfast included. At check inn choose a room at first floor because of luggages.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r372723773-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>372723773</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Not my style</t>
+  </si>
+  <si>
+    <t>I think there's 30 people staying in the room next to ours.   I'm pretty sure this is a section 8 place.   Rooms are noisy from adjoining rooms.  Furnishings are old but they are clean.  Difficult to find parking if you come in late.MoreShow less</t>
+  </si>
+  <si>
+    <t>I think there's 30 people staying in the room next to ours.   I'm pretty sure this is a section 8 place.   Rooms are noisy from adjoining rooms.  Furnishings are old but they are clean.  Difficult to find parking if you come in late.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r368297288-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>368297288</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Just Fine but Needs a Refresh</t>
+  </si>
+  <si>
+    <t>The staff here was very nice and the property is undergoing some renovations. The rooms are a bit worn but the beds are comfortable. The bathrooms are tiny with shower and toilet squeezed in. Overall, I think this is just fine and will be better once the updates have been completed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The staff here was very nice and the property is undergoing some renovations. The rooms are a bit worn but the beds are comfortable. The bathrooms are tiny with shower and toilet squeezed in. Overall, I think this is just fine and will be better once the updates have been completed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r367851477-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>367851477</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Long and pleasant stay</t>
+  </si>
+  <si>
+    <t>Me and my family stayed there for almost 2 months while we waited for our house to be ready and we can say that we are very pleased with the hotel.The location is very good, near very nice restaurants and a large shopping center; adequate gym and a nice pool.The complimentary breakfast was always very good and had different options to satisfy many different tastes.The staff is nice and always very helpful.They were remodeling at the moment, but they found a way to make it without disturbing the guests too much.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Me and my family stayed there for almost 2 months while we waited for our house to be ready and we can say that we are very pleased with the hotel.The location is very good, near very nice restaurants and a large shopping center; adequate gym and a nice pool.The complimentary breakfast was always very good and had different options to satisfy many different tastes.The staff is nice and always very helpful.They were remodeling at the moment, but they found a way to make it without disturbing the guests too much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r365242298-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>365242298</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Renovations underway</t>
+  </si>
+  <si>
+    <t>Older Residence Inn showing some signs of normal wear and age, but the renovations done so far are nice and the breakfast selection is very good.  Areas between building nicely landscaped.  Upgraded to a 2 bdrm suite but no iron/ironing boards in closets of either bedroom area.  Someone in a one bedroom unit had them in his closet so some inconsistency there (wasn't even ironing board holders, like the room had never had them).  Very friendly staff and convenient for Del Amo mall and dining options, ample parking.  Driveway area a little narrow if meeting a car/truck at the exit. Would stay again, a pleasant enough stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Older Residence Inn showing some signs of normal wear and age, but the renovations done so far are nice and the breakfast selection is very good.  Areas between building nicely landscaped.  Upgraded to a 2 bdrm suite but no iron/ironing boards in closets of either bedroom area.  Someone in a one bedroom unit had them in his closet so some inconsistency there (wasn't even ironing board holders, like the room had never had them).  Very friendly staff and convenient for Del Amo mall and dining options, ample parking.  Driveway area a little narrow if meeting a car/truck at the exit. Would stay again, a pleasant enough stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r361534505-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>361534505</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>It was standard, but didn't shine.</t>
+  </si>
+  <si>
+    <t>It met the standard of the Residence Inns.  The room was clean, but smelled like someone had cooked food in there for the entire 5 days I was there, was not coming from the neighbors but rather a leftover smell from previous guests, the property just seemed dated.  The construction work on the parking lot was an inconvenience and I hold not fault on them for it, has to be done sometime I suppose.  The breakfast was good, standard offerings and the staff was very friendly and polite.  I'm not sure I would seek to stay here again, just wasn't that memorable, though the staff does what it can, property just needs a facelift and more in depth cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>It met the standard of the Residence Inns.  The room was clean, but smelled like someone had cooked food in there for the entire 5 days I was there, was not coming from the neighbors but rather a leftover smell from previous guests, the property just seemed dated.  The construction work on the parking lot was an inconvenience and I hold not fault on them for it, has to be done sometime I suppose.  The breakfast was good, standard offerings and the staff was very friendly and polite.  I'm not sure I would seek to stay here again, just wasn't that memorable, though the staff does what it can, property just needs a facelift and more in depth cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r359092898-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>359092898</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Clean Facility</t>
+  </si>
+  <si>
+    <t>This hotel is in the middle of renovations, but I have no complaints. Everything was clean and linens were crisp. The grounds are well kept and the pool/grill area was great!  Within walking distance of fantastic mall....Nordstrom, Airhaus, etc. Great evening dining as well!  MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in the middle of renovations, but I have no complaints. Everything was clean and linens were crisp. The grounds are well kept and the pool/grill area was great!  Within walking distance of fantastic mall....Nordstrom, Airhaus, etc. Great evening dining as well!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r358609715-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>358609715</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Good rooms but an upgrade is due</t>
+  </si>
+  <si>
+    <t>The clientele here are a mix of vacationers &amp; business. The rooms are still in good shape for being one of the earlier residence inn in the southern California area but an upgrade is due. No safe in the room (But available at the front desk), traditional light switches in the main rooms (I had a two bedroom suite) so when leaving we had to run upstairs to be sure all the lights were off.Beds and pillows were fine. I have stayed here many times over the past years and will likely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>The clientele here are a mix of vacationers &amp; business. The rooms are still in good shape for being one of the earlier residence inn in the southern California area but an upgrade is due. No safe in the room (But available at the front desk), traditional light switches in the main rooms (I had a two bedroom suite) so when leaving we had to run upstairs to be sure all the lights were off.Beds and pillows were fine. I have stayed here many times over the past years and will likely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r344245369-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>344245369</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Residence Inn Torrance is just great!</t>
+  </si>
+  <si>
+    <t>My room was clean and nice with all of the amenities. It comes complete with a kitchen (oven, stove, full fridge/freezer, microwave, sink), and everything has recently been refurbished with granite counter tops. Breakfast is served every morning in the main building with the standard continental items as well as hot breakfast (eggs, bacon, sausage, oatmeal). You will fully enjoy your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2016</t>
+  </si>
+  <si>
+    <t>My room was clean and nice with all of the amenities. It comes complete with a kitchen (oven, stove, full fridge/freezer, microwave, sink), and everything has recently been refurbished with granite counter tops. Breakfast is served every morning in the main building with the standard continental items as well as hot breakfast (eggs, bacon, sausage, oatmeal). You will fully enjoy your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r336931428-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>336931428</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for family gatherings!</t>
+  </si>
+  <si>
+    <t>We were three families searching for a place to getaway and spend New Years Eve and we found this Residence Inn that looked perfect and it was! The 2 bedroom penthouses were perfect for our families of 5-6. We were in different buildings, but the front desk was very accommodating in putting us near one another. The best part of the hotel are the gathering areas. The lobby is gorgeous and there is a large back room with 2 TVs and lots of seating. We made pot luck dinners each night and brought them down there. We were able to hang out and play games after as well! Another group was outside grilling and using the fire pit. The kids loved the basketball court and the pool too. Lots of shopping and restaurants nearby and easy drive to beach and anywhere in LA you want to go! Plan to go down early for the free breakfast on weekends. It was nutty in there!MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>We were three families searching for a place to getaway and spend New Years Eve and we found this Residence Inn that looked perfect and it was! The 2 bedroom penthouses were perfect for our families of 5-6. We were in different buildings, but the front desk was very accommodating in putting us near one another. The best part of the hotel are the gathering areas. The lobby is gorgeous and there is a large back room with 2 TVs and lots of seating. We made pot luck dinners each night and brought them down there. We were able to hang out and play games after as well! Another group was outside grilling and using the fire pit. The kids loved the basketball court and the pool too. Lots of shopping and restaurants nearby and easy drive to beach and anywhere in LA you want to go! Plan to go down early for the free breakfast on weekends. It was nutty in there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r335347967-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>335347967</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>typical residence inn experience</t>
+  </si>
+  <si>
+    <t>right off the big street. staff were nice. breakfast was nice. it was very crowded.  parking lot gets filled up quickly. there was a family having a bbq at the pool, which I have never seen but it means that it is very family oriented over the weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>right off the big street. staff were nice. breakfast was nice. it was very crowded.  parking lot gets filled up quickly. there was a family having a bbq at the pool, which I have never seen but it means that it is very family oriented over the weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r331336832-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>331336832</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>The best hotel in Torrance</t>
+  </si>
+  <si>
+    <t>The best hotel ever. I stayed in penthouse style, which offered 2 floors. Staffs are very kind and helpful. Breakfast is good. The best part is that they offer free dinner on Monday to Wednesday. The room was very clean and neat. You can use pool, spa and fitness also. Kitchen is available, and it is sufficiently equipped.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>The best hotel ever. I stayed in penthouse style, which offered 2 floors. Staffs are very kind and helpful. Breakfast is good. The best part is that they offer free dinner on Monday to Wednesday. The room was very clean and neat. You can use pool, spa and fitness also. Kitchen is available, and it is sufficiently equipped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r329787692-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>329787692</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>Even though I live in the area my family from out of town came and we all stayed here. We got a Suite on the upper floor which included a bedroom, kitchen , fireplace and upstairs was a loft.  The rate included breakfast with it. The room was nice and clean. Had everything in the kitchen if you wanted to cook. Spacious. The breakfast was good. Nice selection of different items. It was crowded but has lots of places to sit inside and outside.  Has a nice BBQ area , pool, and basketball / volleyball court. The staff was very nice and accommodating. The location is perfect. Close to the new Del Amo Mall, lots of nearby restaurants. Close to the freeways. I would recommend this to anyone that is wanting to stay in the SouthBay area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded December 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2015</t>
+  </si>
+  <si>
+    <t>Even though I live in the area my family from out of town came and we all stayed here. We got a Suite on the upper floor which included a bedroom, kitchen , fireplace and upstairs was a loft.  The rate included breakfast with it. The room was nice and clean. Had everything in the kitchen if you wanted to cook. Spacious. The breakfast was good. Nice selection of different items. It was crowded but has lots of places to sit inside and outside.  Has a nice BBQ area , pool, and basketball / volleyball court. The staff was very nice and accommodating. The location is perfect. Close to the new Del Amo Mall, lots of nearby restaurants. Close to the freeways. I would recommend this to anyone that is wanting to stay in the SouthBay area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r328398877-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>328398877</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel for extended stay in Southern CA</t>
+  </si>
+  <si>
+    <t>Nothing to complain about this Hotel. The rooms are very large and offer you every amenitie like full-size fridge and a full kitchen. I was only staying four 3 nights, so it was a little wasted on me. But it seems very good for extended business trips. The location was very good for where I needed to go and there are many shops and restaurants nearby. Its also not far to Redondo Beach or Manhatten Beach when you habe some time to do sightseeing. The breakfast was solid though not overly luxurious. The only downside might be the quite substantial prize. So you should check whether your companies travel policy covers it. Privately I might have tries to look for a place with better value. If you come to LA area for extended business you cannot go wrong here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nothing to complain about this Hotel. The rooms are very large and offer you every amenitie like full-size fridge and a full kitchen. I was only staying four 3 nights, so it was a little wasted on me. But it seems very good for extended business trips. The location was very good for where I needed to go and there are many shops and restaurants nearby. Its also not far to Redondo Beach or Manhatten Beach when you habe some time to do sightseeing. The breakfast was solid though not overly luxurious. The only downside might be the quite substantial prize. So you should check whether your companies travel policy covers it. Privately I might have tries to look for a place with better value. If you come to LA area for extended business you cannot go wrong here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r324341174-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>324341174</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Large rooms and good location</t>
+  </si>
+  <si>
+    <t>We stayed for 1 night before our flight back to Europe and the hotel is conveniently located, close to the Del Amo Fashion center and fairly close to the airport. The rooms are large and the complimentary breakfast was more than adequate, probably the best we had on our entire trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>We stayed for 1 night before our flight back to Europe and the hotel is conveniently located, close to the Del Amo Fashion center and fairly close to the airport. The rooms are large and the complimentary breakfast was more than adequate, probably the best we had on our entire trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r316915727-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>316915727</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Close to Everything</t>
+  </si>
+  <si>
+    <t>This Hotel is close to everything in the south bay area.  Hotel is everything you would expect for Residence Inn.  Hotel is a little old but is very well up kept.  Everything is very clean.  All furniture and beds are new and very comfortable.  Staff is very helpful and kind.  Hotel provides night time security so you feel safe walking around at night.  Will stay here again when I return to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>This Hotel is close to everything in the south bay area.  Hotel is everything you would expect for Residence Inn.  Hotel is a little old but is very well up kept.  Everything is very clean.  All furniture and beds are new and very comfortable.  Staff is very helpful and kind.  Hotel provides night time security so you feel safe walking around at night.  Will stay here again when I return to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r316457558-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>316457558</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Can you say FILTHY!</t>
+  </si>
+  <si>
+    <t>I'm a business traveler and member of numerous frequent hotel programs.  I'm in a hotel at least 2-3 nights per week on a short week.  I have never stayed in a filthier hotel. I walked back out of the room and called the front desk.  Coming in late and knowing that the hotels in the area are booked solid, I knew it would not be any use to go anywhere else.  When I called the front desk, I was told there was not a room to change to as the hotel was 100% booked. It was so bad, I wouldn't take off my shoes until I had gotten in the bed.  I took the bedspread off the bed and slept in my clothes.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>I'm a business traveler and member of numerous frequent hotel programs.  I'm in a hotel at least 2-3 nights per week on a short week.  I have never stayed in a filthier hotel. I walked back out of the room and called the front desk.  Coming in late and knowing that the hotels in the area are booked solid, I knew it would not be any use to go anywhere else.  When I called the front desk, I was told there was not a room to change to as the hotel was 100% booked. It was so bad, I wouldn't take off my shoes until I had gotten in the bed.  I took the bedspread off the bed and slept in my clothes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r306102808-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>306102808</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Quiet Suburbia near Redondo Beach</t>
+  </si>
+  <si>
+    <t>This is one of those little places you don't really want to let the secret out about. What I mean is the Residence Inn is a quiet little hotel that's in the Torrance, California Zip code which gives the impression it's next some oil well on a hill. Not so! This Residence Inn is perfectly situated geographically to be about 40 minutes to anywhere in Orange County that you might like to visit. Plus, it's right next to one of my favorite spots, the Redondo Pier. The beach and good food are all close by. On Sunday we enjoyed a walk down one of the local downtown streets for an antique flea market sale. Just an enjoyable time on a Sunday morning.
+Freeway access to the 110; 405; or 710, is within easy distance of the hotel. And depending on your destination, (and time of day), you can easily navigate to any business, beach, theme park, or personal destination without having to deal with too much traffic. For example I dropped my wife off at the LA Convention Center within 30 minutes leaving me enough time to make my destination in Commerce a mere 10 minutes away. The point? Why pay $250-$300 a night when the Residence Inn is just a hop skip and a jump away for nearly half the price.
+As hotels go the Residence Inn stands out to me as one of the better slightly "older" hotels....This is one of those little places you don't really want to let the secret out about. What I mean is the Residence Inn is a quiet little hotel that's in the Torrance, California Zip code which gives the impression it's next some oil well on a hill. Not so! This Residence Inn is perfectly situated geographically to be about 40 minutes to anywhere in Orange County that you might like to visit. Plus, it's right next to one of my favorite spots, the Redondo Pier. The beach and good food are all close by. On Sunday we enjoyed a walk down one of the local downtown streets for an antique flea market sale. Just an enjoyable time on a Sunday morning.Freeway access to the 110; 405; or 710, is within easy distance of the hotel. And depending on your destination, (and time of day), you can easily navigate to any business, beach, theme park, or personal destination without having to deal with too much traffic. For example I dropped my wife off at the LA Convention Center within 30 minutes leaving me enough time to make my destination in Commerce a mere 10 minutes away. The point? Why pay $250-$300 a night when the Residence Inn is just a hop skip and a jump away for nearly half the price.As hotels go the Residence Inn stands out to me as one of the better slightly "older" hotels. The room had a typical smell of being closed up for awhile before we arrived. (Room 612) But smelled clean and aired out quickly. I liked the fact that parking was free and plentiful right in front of our door. That's convenient. Our suite was quiet. Very nice at night. The A/C unit hummed at a low tolerable decibel level and the room was designed for easy access and accommodations.The breakfast buffet is well laid out to allow for easy access and general seating accommodations without feeling cramped or over crowded. Food was good. Fresh. You can eat light or heavy depending on your appetite. People from all over the world stayed here during our stay. They were friendly and we found our time there pleasant.Staff knows how to serve without being seen. Front desk is friendly and helpful. I would definitely stay there again. Maybe. Depending on whether you can keep the secret from spreading too far.,,MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>This is one of those little places you don't really want to let the secret out about. What I mean is the Residence Inn is a quiet little hotel that's in the Torrance, California Zip code which gives the impression it's next some oil well on a hill. Not so! This Residence Inn is perfectly situated geographically to be about 40 minutes to anywhere in Orange County that you might like to visit. Plus, it's right next to one of my favorite spots, the Redondo Pier. The beach and good food are all close by. On Sunday we enjoyed a walk down one of the local downtown streets for an antique flea market sale. Just an enjoyable time on a Sunday morning.
+Freeway access to the 110; 405; or 710, is within easy distance of the hotel. And depending on your destination, (and time of day), you can easily navigate to any business, beach, theme park, or personal destination without having to deal with too much traffic. For example I dropped my wife off at the LA Convention Center within 30 minutes leaving me enough time to make my destination in Commerce a mere 10 minutes away. The point? Why pay $250-$300 a night when the Residence Inn is just a hop skip and a jump away for nearly half the price.
+As hotels go the Residence Inn stands out to me as one of the better slightly "older" hotels....This is one of those little places you don't really want to let the secret out about. What I mean is the Residence Inn is a quiet little hotel that's in the Torrance, California Zip code which gives the impression it's next some oil well on a hill. Not so! This Residence Inn is perfectly situated geographically to be about 40 minutes to anywhere in Orange County that you might like to visit. Plus, it's right next to one of my favorite spots, the Redondo Pier. The beach and good food are all close by. On Sunday we enjoyed a walk down one of the local downtown streets for an antique flea market sale. Just an enjoyable time on a Sunday morning.Freeway access to the 110; 405; or 710, is within easy distance of the hotel. And depending on your destination, (and time of day), you can easily navigate to any business, beach, theme park, or personal destination without having to deal with too much traffic. For example I dropped my wife off at the LA Convention Center within 30 minutes leaving me enough time to make my destination in Commerce a mere 10 minutes away. The point? Why pay $250-$300 a night when the Residence Inn is just a hop skip and a jump away for nearly half the price.As hotels go the Residence Inn stands out to me as one of the better slightly "older" hotels. The room had a typical smell of being closed up for awhile before we arrived. (Room 612) But smelled clean and aired out quickly. I liked the fact that parking was free and plentiful right in front of our door. That's convenient. Our suite was quiet. Very nice at night. The A/C unit hummed at a low tolerable decibel level and the room was designed for easy access and accommodations.The breakfast buffet is well laid out to allow for easy access and general seating accommodations without feeling cramped or over crowded. Food was good. Fresh. You can eat light or heavy depending on your appetite. People from all over the world stayed here during our stay. They were friendly and we found our time there pleasant.Staff knows how to serve without being seen. Front desk is friendly and helpful. I would definitely stay there again. Maybe. Depending on whether you can keep the secret from spreading too far.,,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r304800727-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>304800727</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Very old property needs serious update</t>
+  </si>
+  <si>
+    <t>Very old and dirty street furniture.  Don't be fooled by getting upgraded to penthouse suite.  It was smelly and stuffy and needed furniture to be thrown away right away.  Door lock was flimsy.  Needed serious update.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded August 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2015</t>
+  </si>
+  <si>
+    <t>Very old and dirty street furniture.  Don't be fooled by getting upgraded to penthouse suite.  It was smelly and stuffy and needed furniture to be thrown away right away.  Door lock was flimsy.  Needed serious update.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r301334280-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>301334280</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Just A Heads Up...</t>
+  </si>
+  <si>
+    <t>Obviously an older property. It was a little loud too. We were given a handicap room and the shower was broken. No evening snacks Thursday to Sunday but breakfast was OK, standard free (room was 200.00) breakfast. I did speak with management and they gave me reward points, which I appreciated. I think this was only fair and the right thing to do. We are Marriott owners in Orlando. Won't be back here though. MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Obviously an older property. It was a little loud too. We were given a handicap room and the shower was broken. No evening snacks Thursday to Sunday but breakfast was OK, standard free (room was 200.00) breakfast. I did speak with management and they gave me reward points, which I appreciated. I think this was only fair and the right thing to do. We are Marriott owners in Orlando. Won't be back here though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r297366466-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>297366466</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Good Location for a south LA look around</t>
+  </si>
+  <si>
+    <t>we have stayed here several times, we like the location, and the rooms, we book a family room, which has a mezzanine bedroom for our son to stay in, great facilities (Kitchen, bathrooms, fireplace) the hotel, has a small pool and limited facilities (restaurant has been under repair for nearly 2 years).the reason we like this hotel is the location, its directly over the road from the Del Amo shopping center. to the right is a Ralph's, so you don't have to go far to get supplies. its approx a 10 minute drive to get to the beach as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>we have stayed here several times, we like the location, and the rooms, we book a family room, which has a mezzanine bedroom for our son to stay in, great facilities (Kitchen, bathrooms, fireplace) the hotel, has a small pool and limited facilities (restaurant has been under repair for nearly 2 years).the reason we like this hotel is the location, its directly over the road from the Del Amo shopping center. to the right is a Ralph's, so you don't have to go far to get supplies. its approx a 10 minute drive to get to the beach as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r297165269-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>297165269</t>
+  </si>
+  <si>
+    <t>a good stay</t>
+  </si>
+  <si>
+    <t>Nice location close to shopping and restaurants.  On Torrance Blvd, we had one of the front rooms and road noise was tolerable.  This hotel does not have 1 bedroom suites.  The 2 queen studio was fairly spacious.  Breakfast was standard for these properties with the exception of the tiny coffee cups, I mean small.  We reverted to making coffee in our room.  WiFi was good in the room however seemed to be lacking on the breakfast deck.  Better than average front desk and housekeeping staff.  Hotel has not yet installed low flow showerheads which was disappointing given the drought.  Good neighborhood, even though not much in walking distance, everything is a short drive.  Parking is packed, spaces are decent sized and our full sized SUV was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice location close to shopping and restaurants.  On Torrance Blvd, we had one of the front rooms and road noise was tolerable.  This hotel does not have 1 bedroom suites.  The 2 queen studio was fairly spacious.  Breakfast was standard for these properties with the exception of the tiny coffee cups, I mean small.  We reverted to making coffee in our room.  WiFi was good in the room however seemed to be lacking on the breakfast deck.  Better than average front desk and housekeeping staff.  Hotel has not yet installed low flow showerheads which was disappointing given the drought.  Good neighborhood, even though not much in walking distance, everything is a short drive.  Parking is packed, spaces are decent sized and our full sized SUV was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r296102777-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>296102777</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>My parents and I stayed here for a month after the house caught on fire. The insurance company set us up here. The staff was very empathetic of our situation and offered to help get anything we needed. The rooms are like condos. Ours had a loft and a lot of room for our things and our 2 dogs. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>My parents and I stayed here for a month after the house caught on fire. The insurance company set us up here. The staff was very empathetic of our situation and offered to help get anything we needed. The rooms are like condos. Ours had a loft and a lot of room for our things and our 2 dogs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r289683085-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>289683085</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Brutal.</t>
+  </si>
+  <si>
+    <t>This hotel is so outdated. Everything inside the room from the carpets to the nightstands looked like they were from the 80s. It was extremely gross and the beds were terrible. Was there for the week and they didn't come clean it even once. Very disappointing. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is so outdated. Everything inside the room from the carpets to the nightstands looked like they were from the 80s. It was extremely gross and the beds were terrible. Was there for the week and they didn't come clean it even once. Very disappointing. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r289387391-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>289387391</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Residence Inn brand</t>
+  </si>
+  <si>
+    <t>I stayed at residence inns in Raleigh NC, Alexandria VA, Boston, MA before and had positive experiences. This one can use a little touch up. The public area is fine. They actually have outdoor swimming pool and hot tub. The lounge area they have breakfast and evening social is spacious and fresh. The room is spacious but dull. Little things like door knob is badly tarnished, iron board has a crooked stand, faucet looks like something from the 80s. The bed is okay. I had a good night sleepMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I stayed at residence inns in Raleigh NC, Alexandria VA, Boston, MA before and had positive experiences. This one can use a little touch up. The public area is fine. They actually have outdoor swimming pool and hot tub. The lounge area they have breakfast and evening social is spacious and fresh. The room is spacious but dull. Little things like door knob is badly tarnished, iron board has a crooked stand, faucet looks like something from the 80s. The bed is okay. I had a good night sleepMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r287582533-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>287582533</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>This was a pleasant place to stay during an intense week-long training.  I checked in Monday evening and found there were fun evening activities planned for the next three nights. The best was Wednesday's Food Truck Rally!  Yummmm. We were offered free food and beverages with a fun party atmosphere!  Those evenings, combined with free breakfasts, made this stay totally worth it. As for my room, it was super clean, large, and comfy!  Lots of electrical outlets for my devices, and the all-important wifi worked perfectly. Big surprise was the free shuttle to local areas. John and Eddie (Shuttle Drivers) were super helpful getting me to my class each day. Not having to battle traffic and parking was a HUGE BONUS!  In fact, I tried to book another week for my next training, but they are already booked. Thank goodness for the next door hotel having availability. I really like the shuttle!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a pleasant place to stay during an intense week-long training.  I checked in Monday evening and found there were fun evening activities planned for the next three nights. The best was Wednesday's Food Truck Rally!  Yummmm. We were offered free food and beverages with a fun party atmosphere!  Those evenings, combined with free breakfasts, made this stay totally worth it. As for my room, it was super clean, large, and comfy!  Lots of electrical outlets for my devices, and the all-important wifi worked perfectly. Big surprise was the free shuttle to local areas. John and Eddie (Shuttle Drivers) were super helpful getting me to my class each day. Not having to battle traffic and parking was a HUGE BONUS!  In fact, I tried to book another week for my next training, but they are already booked. Thank goodness for the next door hotel having availability. I really like the shuttle!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r283159753-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>283159753</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Upgrade to 2 bedroom suite was wonderful!</t>
+  </si>
+  <si>
+    <t>We arrived early and were given and upgraded suite close to another family we were traveling with. The room was like an apartment. Had a full kitchen with dishwasher and full size refrigerator. An upstairs and downstairs and even a wood fireplace.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>We arrived early and were given and upgraded suite close to another family we were traveling with. The room was like an apartment. Had a full kitchen with dishwasher and full size refrigerator. An upstairs and downstairs and even a wood fireplace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r282407709-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>282407709</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Clean and good location</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and spacious, although the flooring was a little dated. The beds were very comfortable.  Our unit had a kitchen.  There was bottled water in the refrigerator, for a cost of $3.50 per bottle.  I suggest buying your own, Target and Walmart are within 2 miles. There is a mall and beach very close by, several options for eating. The breakfast buffet was one of the best I have ever seen. The hotel was pretty busy on Friday and Saturday, but nice and quiet the other days.  The grounds are very well kept. The front desk staff was very friendly!MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and spacious, although the flooring was a little dated. The beds were very comfortable.  Our unit had a kitchen.  There was bottled water in the refrigerator, for a cost of $3.50 per bottle.  I suggest buying your own, Target and Walmart are within 2 miles. There is a mall and beach very close by, several options for eating. The breakfast buffet was one of the best I have ever seen. The hotel was pretty busy on Friday and Saturday, but nice and quiet the other days.  The grounds are very well kept. The front desk staff was very friendly!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r282089531-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>282089531</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Misleading Introduction</t>
+  </si>
+  <si>
+    <t>'The Newly Renovated Residence Inn' as depicted by the website was a bit misleading. I will start by saying that the lobby was absolutely beautiful, it was renovated nicely and staff was very friendly. However, the room was dirty, the fridge was banged up, the door would not latch correctly leaving a very noticeable gap with light shining through. This gave me the impression of a security concern at which point I decided to check back out. The tubs had rust around the secondary discharge. The staff left cleaning solution in the room. Clearly attention to detail was not there and the room did not receive a similar level of renovation.MoreShow less</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded June 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2015</t>
+  </si>
+  <si>
+    <t>'The Newly Renovated Residence Inn' as depicted by the website was a bit misleading. I will start by saying that the lobby was absolutely beautiful, it was renovated nicely and staff was very friendly. However, the room was dirty, the fridge was banged up, the door would not latch correctly leaving a very noticeable gap with light shining through. This gave me the impression of a security concern at which point I decided to check back out. The tubs had rust around the secondary discharge. The staff left cleaning solution in the room. Clearly attention to detail was not there and the room did not receive a similar level of renovation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r265589091-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>265589091</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>I was very disappointed. One of the cleaning staff was so rude to me that I was ready to check out. The bedding (covers and sheets) had holes in them, the furniture was old, and the electric burners were tilted, so I couldn't cook my food evenly.There was no oven. It was difficult to find the make shift registration area. The only good thing I can say, is that I could bring my dogs, there was a basket ball court, a heated pool, and a decent breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>victoria_mclaughlin, Manager at Residence Inn Los Angeles Torrance/Redondo Beach, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>I was very disappointed. One of the cleaning staff was so rude to me that I was ready to check out. The bedding (covers and sheets) had holes in them, the furniture was old, and the electric burners were tilted, so I couldn't cook my food evenly.There was no oven. It was difficult to find the make shift registration area. The only good thing I can say, is that I could bring my dogs, there was a basket ball court, a heated pool, and a decent breakfast.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2351,4647 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>187</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>217</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>225</v>
+      </c>
+      <c r="X24" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>242</v>
+      </c>
+      <c r="X26" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>233</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>242</v>
+      </c>
+      <c r="X27" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>233</v>
+      </c>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>263</v>
+      </c>
+      <c r="X29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>272</v>
+      </c>
+      <c r="X30" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" t="s">
+        <v>278</v>
+      </c>
+      <c r="L31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>280</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>272</v>
+      </c>
+      <c r="X31" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s">
+        <v>286</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>280</v>
+      </c>
+      <c r="O32" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>287</v>
+      </c>
+      <c r="X32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>295</v>
+      </c>
+      <c r="X33" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>287</v>
+      </c>
+      <c r="X34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>308</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>309</v>
+      </c>
+      <c r="X35" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>318</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>309</v>
+      </c>
+      <c r="X36" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>308</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>309</v>
+      </c>
+      <c r="X37" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>331</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>309</v>
+      </c>
+      <c r="X38" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>308</v>
+      </c>
+      <c r="O39" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>309</v>
+      </c>
+      <c r="X39" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" t="s">
+        <v>341</v>
+      </c>
+      <c r="K40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>308</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>344</v>
+      </c>
+      <c r="X40" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>348</v>
+      </c>
+      <c r="J41" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" t="s">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s">
+        <v>351</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>352</v>
+      </c>
+      <c r="O41" t="s">
+        <v>318</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>353</v>
+      </c>
+      <c r="X41" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>361</v>
+      </c>
+      <c r="O42" t="s">
+        <v>318</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>362</v>
+      </c>
+      <c r="X42" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>365</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>366</v>
+      </c>
+      <c r="J43" t="s">
+        <v>367</v>
+      </c>
+      <c r="K43" t="s">
+        <v>368</v>
+      </c>
+      <c r="L43" t="s">
+        <v>369</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>353</v>
+      </c>
+      <c r="X43" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>372</v>
+      </c>
+      <c r="J44" t="s">
+        <v>373</v>
+      </c>
+      <c r="K44" t="s">
+        <v>374</v>
+      </c>
+      <c r="L44" t="s">
+        <v>375</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>376</v>
+      </c>
+      <c r="X44" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>380</v>
+      </c>
+      <c r="J45" t="s">
+        <v>381</v>
+      </c>
+      <c r="K45" t="s">
+        <v>382</v>
+      </c>
+      <c r="L45" t="s">
+        <v>383</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>384</v>
+      </c>
+      <c r="X45" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>388</v>
+      </c>
+      <c r="J46" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46" t="s">
+        <v>390</v>
+      </c>
+      <c r="L46" t="s">
+        <v>391</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>361</v>
+      </c>
+      <c r="O46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>384</v>
+      </c>
+      <c r="X46" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>393</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>394</v>
+      </c>
+      <c r="J47" t="s">
+        <v>395</v>
+      </c>
+      <c r="K47" t="s">
+        <v>396</v>
+      </c>
+      <c r="L47" t="s">
+        <v>397</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>398</v>
+      </c>
+      <c r="O47" t="s">
+        <v>140</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>384</v>
+      </c>
+      <c r="X47" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s">
+        <v>403</v>
+      </c>
+      <c r="L48" t="s">
+        <v>404</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>405</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>384</v>
+      </c>
+      <c r="X48" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>407</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>408</v>
+      </c>
+      <c r="J49" t="s">
+        <v>409</v>
+      </c>
+      <c r="K49" t="s">
+        <v>410</v>
+      </c>
+      <c r="L49" t="s">
+        <v>411</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>398</v>
+      </c>
+      <c r="O49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>412</v>
+      </c>
+      <c r="X49" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>416</v>
+      </c>
+      <c r="J50" t="s">
+        <v>417</v>
+      </c>
+      <c r="K50" t="s">
+        <v>418</v>
+      </c>
+      <c r="L50" t="s">
+        <v>419</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>420</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>421</v>
+      </c>
+      <c r="X50" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>425</v>
+      </c>
+      <c r="J51" t="s">
+        <v>426</v>
+      </c>
+      <c r="K51" t="s">
+        <v>427</v>
+      </c>
+      <c r="L51" t="s">
+        <v>428</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>420</v>
+      </c>
+      <c r="O51" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>421</v>
+      </c>
+      <c r="X51" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>432</v>
+      </c>
+      <c r="K52" t="s">
+        <v>433</v>
+      </c>
+      <c r="L52" t="s">
+        <v>434</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>420</v>
+      </c>
+      <c r="O52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>421</v>
+      </c>
+      <c r="X52" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>436</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>437</v>
+      </c>
+      <c r="J53" t="s">
+        <v>438</v>
+      </c>
+      <c r="K53" t="s">
+        <v>439</v>
+      </c>
+      <c r="L53" t="s">
+        <v>440</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>441</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>442</v>
+      </c>
+      <c r="X53" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>445</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>446</v>
+      </c>
+      <c r="J54" t="s">
+        <v>447</v>
+      </c>
+      <c r="K54" t="s">
+        <v>448</v>
+      </c>
+      <c r="L54" t="s">
+        <v>449</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>441</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>450</v>
+      </c>
+      <c r="X54" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>453</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>454</v>
+      </c>
+      <c r="J55" t="s">
+        <v>455</v>
+      </c>
+      <c r="K55" t="s">
+        <v>456</v>
+      </c>
+      <c r="L55" t="s">
+        <v>457</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>331</v>
+      </c>
+      <c r="O55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>458</v>
+      </c>
+      <c r="X55" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>466</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>467</v>
+      </c>
+      <c r="X56" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>470</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>471</v>
+      </c>
+      <c r="J57" t="s">
+        <v>472</v>
+      </c>
+      <c r="K57" t="s">
+        <v>473</v>
+      </c>
+      <c r="L57" t="s">
+        <v>474</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>475</v>
+      </c>
+      <c r="O57" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>476</v>
+      </c>
+      <c r="X57" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>479</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>480</v>
+      </c>
+      <c r="J58" t="s">
+        <v>481</v>
+      </c>
+      <c r="K58" t="s">
+        <v>482</v>
+      </c>
+      <c r="L58" t="s">
+        <v>483</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>317</v>
+      </c>
+      <c r="O58" t="s">
+        <v>68</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>476</v>
+      </c>
+      <c r="X58" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>485</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>486</v>
+      </c>
+      <c r="J59" t="s">
+        <v>487</v>
+      </c>
+      <c r="K59" t="s">
+        <v>488</v>
+      </c>
+      <c r="L59" t="s">
+        <v>489</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>317</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>490</v>
+      </c>
+      <c r="X59" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>493</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>494</v>
+      </c>
+      <c r="J60" t="s">
+        <v>495</v>
+      </c>
+      <c r="K60" t="s">
+        <v>496</v>
+      </c>
+      <c r="L60" t="s">
+        <v>497</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>317</v>
+      </c>
+      <c r="O60" t="s">
+        <v>78</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>498</v>
+      </c>
+      <c r="X60" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>501</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>502</v>
+      </c>
+      <c r="J61" t="s">
+        <v>503</v>
+      </c>
+      <c r="K61" t="s">
+        <v>504</v>
+      </c>
+      <c r="L61" t="s">
+        <v>505</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>317</v>
+      </c>
+      <c r="O61" t="s">
+        <v>68</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>506</v>
+      </c>
+      <c r="X61" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>509</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>510</v>
+      </c>
+      <c r="J62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K62" t="s">
+        <v>512</v>
+      </c>
+      <c r="L62" t="s">
+        <v>513</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>514</v>
+      </c>
+      <c r="O62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>490</v>
+      </c>
+      <c r="X62" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>516</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>517</v>
+      </c>
+      <c r="J63" t="s">
+        <v>518</v>
+      </c>
+      <c r="K63" t="s">
+        <v>519</v>
+      </c>
+      <c r="L63" t="s">
+        <v>520</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>514</v>
+      </c>
+      <c r="O63" t="s">
+        <v>68</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>521</v>
+      </c>
+      <c r="X63" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>524</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>525</v>
+      </c>
+      <c r="J64" t="s">
+        <v>526</v>
+      </c>
+      <c r="K64" t="s">
+        <v>527</v>
+      </c>
+      <c r="L64" t="s">
+        <v>528</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>514</v>
+      </c>
+      <c r="O64" t="s">
+        <v>140</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>529</v>
+      </c>
+      <c r="X64" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>532</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>533</v>
+      </c>
+      <c r="J65" t="s">
+        <v>534</v>
+      </c>
+      <c r="K65" t="s">
+        <v>535</v>
+      </c>
+      <c r="L65" t="s">
+        <v>536</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>537</v>
+      </c>
+      <c r="O65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>529</v>
+      </c>
+      <c r="X65" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>539</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>540</v>
+      </c>
+      <c r="J66" t="s">
+        <v>534</v>
+      </c>
+      <c r="K66" t="s">
+        <v>541</v>
+      </c>
+      <c r="L66" t="s">
+        <v>542</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>514</v>
+      </c>
+      <c r="O66" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>529</v>
+      </c>
+      <c r="X66" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>544</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>545</v>
+      </c>
+      <c r="J67" t="s">
+        <v>546</v>
+      </c>
+      <c r="K67" t="s">
+        <v>547</v>
+      </c>
+      <c r="L67" t="s">
+        <v>548</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>549</v>
+      </c>
+      <c r="O67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>529</v>
+      </c>
+      <c r="X67" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>551</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>552</v>
+      </c>
+      <c r="J68" t="s">
+        <v>553</v>
+      </c>
+      <c r="K68" t="s">
+        <v>554</v>
+      </c>
+      <c r="L68" t="s">
+        <v>555</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>556</v>
+      </c>
+      <c r="O68" t="s">
+        <v>68</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>557</v>
+      </c>
+      <c r="X68" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>560</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>561</v>
+      </c>
+      <c r="J69" t="s">
+        <v>562</v>
+      </c>
+      <c r="K69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69" t="s">
+        <v>564</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>565</v>
+      </c>
+      <c r="O69" t="s">
+        <v>318</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>557</v>
+      </c>
+      <c r="X69" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>567</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>568</v>
+      </c>
+      <c r="J70" t="s">
+        <v>569</v>
+      </c>
+      <c r="K70" t="s">
+        <v>570</v>
+      </c>
+      <c r="L70" t="s">
+        <v>571</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>573</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>574</v>
+      </c>
+      <c r="J71" t="s">
+        <v>575</v>
+      </c>
+      <c r="K71" t="s">
+        <v>576</v>
+      </c>
+      <c r="L71" t="s">
+        <v>577</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>578</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>579</v>
+      </c>
+      <c r="X71" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>582</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>583</v>
+      </c>
+      <c r="J72" t="s">
+        <v>584</v>
+      </c>
+      <c r="K72" t="s">
+        <v>585</v>
+      </c>
+      <c r="L72" t="s">
+        <v>586</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>556</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>579</v>
+      </c>
+      <c r="X72" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>588</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>589</v>
+      </c>
+      <c r="J73" t="s">
+        <v>590</v>
+      </c>
+      <c r="K73" t="s">
+        <v>591</v>
+      </c>
+      <c r="L73" t="s">
+        <v>592</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>578</v>
+      </c>
+      <c r="O73" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>593</v>
+      </c>
+      <c r="X73" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5266</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>596</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>597</v>
+      </c>
+      <c r="J74" t="s">
+        <v>598</v>
+      </c>
+      <c r="K74" t="s">
+        <v>599</v>
+      </c>
+      <c r="L74" t="s">
+        <v>600</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>601</v>
+      </c>
+      <c r="O74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>602</v>
+      </c>
+      <c r="X74" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>604</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_655.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_655.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="676">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mike G</t>
+  </si>
+  <si>
     <t>07/09/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I stayed here in April 2016 and reviewed it previously.  Stayed here again this past week and the refresh of the room was appreciated.  An older property, the sound insulation still isn't optimal, but so long as you stay on second floor or don't have neighbors above you, its just fine.  The room layout was improved and the refresh of was nice except the mattress seemed forgotten.  It was simply old and a flimsy topper didn't change it but may it worse, far too squishy and needs to be replaced ASAP in room 412.  I didn't use the breakfast this time around, but it appeared great and it was solid last time, but when you refresh a room but overlook the most important part, sleep quality, than it's hard to improve my review from last time, and I really wanted to because cleanliness was good and the rest of the refresh I found quite attractive.More</t>
   </si>
   <si>
+    <t>LindaG1616</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r572671258-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve">I love staying at Marriott's Residence Inn.  If you have multiple adults and/or kids traveling together there is no better option for a bigger group or a family.  The Residence Inn Torrance/Redondo Beach - while a little further away from LAX then I anticipated - was clean, the employees were friendly and we enjoyed our stay.  </t>
   </si>
   <si>
+    <t>Janos F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r570354848-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>It was the fourth times to stay at Residence inn. The hotel has an excellent locations. It is close to business area, shopping center and beaches. The nearest restaurants are only 300 feet from here (2 minutes on foot). Good, free breakfast every morning and dinner with beers, from Monday to Wednesday. Nonstop gym at the 2nd floor of renewed reception building. Clean and nice apartments with fully equipped kitchen. The staff is kind and helpful. I hope, I'll back.More</t>
   </si>
   <si>
+    <t>Terry K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r567881490-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>Vacation to the beach for our family of 5.   Chose this property based on the fact it had a loft, and thus easily can sleep 5.   I will get the negative out first...yes, as previous reviewers have stated, if you choose a suite, they are located on the 2nd floor and there is no elevators.   But if steps are not a problem, then read on and book because this hotel is great.   The suites (1 bedroom with adjoining bath, 1 living area, full kitchen and a loft with a bed room and another bathroom) are SPACIOUS.   After the 5 of us were in a 'normal room' for a few nights, spreading out here felt like a little slice of heaven.    The property is clean, as is the rooms.  The main areas include a heated outdoor pool, a hot tub, a bbq area with multiple grills, a fire pit and a sport court with a basketball hoop.  It gave us lots to do.  The morning breakfast was plentiful, and the night reception included sandwiches, fixings and beer/wine.   The internet worked without a problem.  3 tvs gave everyone options to watch what they wanted.   Location was easy to find, and the campus is large so we never heard the traffic on the main street.  Overall, two very big thumbs up.   RECOMMEND!More</t>
   </si>
   <si>
+    <t>wg2065</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r564711496-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>Liked the location, neighborhood with lots of shops and close to LAX airport without the noise. Rooms however located in small multiunit buildings requiring that you climb two flights of stairs with bags to second floor units and to walk outside to get back to main building, fitness, or pool.  Disappointed room with two doule instead of queen beds even though plenty of room in same.  Sofa small and room layout (contrary to other RInns we have stayed in with partial kitchen setup such that you cannot see TV with limited counter/table eating space.  Pool and whirlpool on small side.  TV service not working on equipment in fitness rm and went in and out during the day in the room.  Continental breakfast and evening dinners provided (again compared to other Residence Inns we have stayed at) put out small amounts of food items/choices inadequate to serve the quantity of people in line. Dessert choices verey limited and boring.  Large groups of students staying at this location often monopollized eating areas and recreational areas (firepit and sitting areas) for own meals and parties making it impossible for other guests to access this area.  Alcohol was being served at these outside gatherings and the noise level could be heard inside nearby rooms with shouting by these partiers trying to control those who were misehaving while under the influence.  Complained to front desk staff who seemed to be unaware.   Large uses associated with...Liked the location, neighborhood with lots of shops and close to LAX airport without the noise. Rooms however located in small multiunit buildings requiring that you climb two flights of stairs with bags to second floor units and to walk outside to get back to main building, fitness, or pool.  Disappointed room with two doule instead of queen beds even though plenty of room in same.  Sofa small and room layout (contrary to other RInns we have stayed in with partial kitchen setup such that you cannot see TV with limited counter/table eating space.  Pool and whirlpool on small side.  TV service not working on equipment in fitness rm and went in and out during the day in the room.  Continental breakfast and evening dinners provided (again compared to other Residence Inns we have stayed at) put out small amounts of food items/choices inadequate to serve the quantity of people in line. Dessert choices verey limited and boring.  Large groups of students staying at this location often monopollized eating areas and recreational areas (firepit and sitting areas) for own meals and parties making it impossible for other guests to access this area.  Alcohol was being served at these outside gatherings and the noise level could be heard inside nearby rooms with shouting by these partiers trying to control those who were misehaving while under the influence.  Complained to front desk staff who seemed to be unaware.   Large uses associated with these groups often blocked the entrance to the hotel such that my husband had to stop his car and ask the bus driver to move so he could entre to park.  While housekeeping staff very apparant, security staff, and monitoring of these large groups was not occurring.  There did not appear to be a separate area to manage these groups or feed these groups so they do not interupt service to other guests.  There is NO airport shuttle and they were not ameniable to late checkout again services we have received at other Residence Inn locations in California we have stayed in. Asked for wakeup call 3 mornings and phone never rang. No dishwashing soap for sink and dishwasher provided. Had to ask for toilet paper. Disappointed expected more based on past experience. Was a business and family trip.More</t>
   </si>
   <si>
+    <t>Mooondog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r562768616-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -310,6 +328,9 @@
   </si>
   <si>
     <t>Overall we enjoyed our stay.   Staff was friendly and helpful.  The breakfast spread was pretty nice.   Overall pretty clean/modern.Okay...so let's talk about the TV.   The TV's are set for automatic "global dimming".  What does this mean??  The TV is annoyingly dim, especially when the room is darker.  It was sooooo incredibly annoying when we're trying to watch the Olympics and the TV is not very bright.   I tried to change it but they have that TV on lock-down in "hotel mode" or "commercial mode".    In today's day and age that TV situation was just unacceptable.More</t>
+  </si>
+  <si>
+    <t>koloa56</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r554358352-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
@@ -349,6 +370,9 @@
 •	We stayed in this hotel for about 9 hours, 6 hours of which I was trying to find another hotel on Christmas Day...•	Early on Christmas day 2017 at about 2:00 AM,  when we first entered the room, we had to run the garbage disposal with dishwashing soap because it had a strong garbage smell as though it had not been run after the last guest;•	When I went to take a shower about 3:00 AM, I found two light brown pubic hairs in the bathtub and on the edge behind the shower curtain.  Neither my husband nor I took a shower before I saw the pubic hair;•	Because I was tired from a 5-hour flight and time change, I took a shower.  Then, I heard and found a cricket in the kitchen area.  I tried to catch it but could not.•	A few minutes later, I was cold so I pulled down the blanket that was encased in plastic and when I opened it, I found 3 long hairs on the blanket!  I have very short hair. •	I reported these issues to the front desk as they happened, expecting that housekeeping would do a better job the next day.  However, the long hair in the blanket was the final straw and I informed the front desk that we were going to leave the next day, even though we were booked for 10 days.•	We stayed in this hotel for about 9 hours, 6 hours of which I was trying to find another hotel on Christmas Day and discussing the room condition with the acting supervisor.  When brought to their attention, the acting supervisor and general manager approached this situation with such disrespect, arrogance, and contempt.  They basically told me that I was lying because their two best supervisors had checked the room so the issues I brought up could not exist.  Yet, an online review on the hotel’s website on January 5, 2018 mirrors my complaints, specifically about hair in the blanket and management’s lack of follow through after complaints were made to front desk.  In my case, the hotel general manager refused to refund less than $300 for two rooms for the 9 hours that we stayed in the hotel because we did not leave the hotel at about 3:30 AM even though we did not have a place to go and we are almost 70 years old, unused to the cold weather.  We also could not move to another room because I am highly allergic to fragrances and had pre-arranged for our room to specifically be a "green room".   We were appalled at the lack of customer service, particularly on Christmas day!  The general manager, Mr. Godoy, did not even apologize for the condition of the room and implied that my standards for cleanliness were too high.  I am a long-time Marriott guest since before 1990 and am Silver Elite, an indication of the number of times I have stayed at a Marriott property over a period of time.  This Residence Inn on Torrance Street does not meet Marriott’s standards for cleanliness and customer service.  I recommend going a few miles away to the Residence Inn Redondo Beach on Marine Street (not to be confused with this Residence Inn Los Angeles Torrance/Redondo Beach on Torrance Street) where the facilities and customer service are excellent.More</t>
   </si>
   <si>
+    <t>Furyhorn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r552771357-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -376,6 +400,9 @@
     <t>Arrived and checked in. Room was not cleaned, though marked as such. Was able to switch rooms. Bed was a bit hard, but was made up for by the amenities. Workout facility was small, but had enough to help maintain. Checkin was quick and easy.More</t>
   </si>
   <si>
+    <t>sethos1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r551812494-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -397,6 +424,9 @@
     <t>We stayed in a two bedroom suite for 3 nights. This is an ideal setup for a family of four. Two queen beds, with a kitchen and living room. Right across from the Del Amo mall for all your shopping pleasures. Kids loved it. Close to all the South Bay beaches and attractions.More</t>
   </si>
   <si>
+    <t>Nelson K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r544127204-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -418,6 +448,9 @@
     <t>Our family of four, including 2 teens, stayed here on Thanksgiving eve. We booked a room with 2 double beds and a pull out sofa, so that our 2 teens could have separate beds. Upon entering the room, we were pleasantly surprised to find how large the room was, with a separate bathroom/sink area. We were also pleased to find a good-sized refrigerator and sink area, with a small dining area. This was a blessing, having so much space so that we could all find our private space and minimize family bickering. We were also pleasantly surprised to find a dessert buffet with complimentary beverages. Although  the food quality was not the best, it was a nice touch. Breakfast the following morning was better than expected, with hot cereal, eggs,  bacon, sausage, make your own waffles among the choices. We were also generously allowed to check out at 2:00 rather than 12:00 after management checked their schedules. We found this to be an extraordinary value for our money.More</t>
   </si>
   <si>
+    <t>Andrewth123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r543868781-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -436,6 +469,9 @@
     <t>You get what you pay for and this place certainly gives you quality and a real nice and comfortable place to stay.I will certainly recommend and stay in this place again when visiting LA.The facilities were awesome, with real well kept grounds, a wonderful breakfast and a real safe feel to the place.The staff were fantastic and I can't find any negative points.More</t>
   </si>
   <si>
+    <t>sara b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r543868777-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -454,6 +490,9 @@
     <t>stayed here just for the night of the chargers game. it was really nice and the front desk let us check in super early, like before noon. great service. the breakfast was really good, standard hotel buffet. i did like how they catered to those that frequent the area with chopsticks, rice, and different sauces. theres a few restaurants and shops near by as well. i'd stay here again.More</t>
   </si>
   <si>
+    <t>Teresa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r538810991-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -478,6 +517,9 @@
     <t>we had a family gathering and tried this fine place recently....the free breakfast is delicious and fresh...the room was big and clean, and emphasized recycling, as a bucket was provided for our daily newspaper when finished...another small perk, is the magnet you attach to your door that says no housekeeping needed today, or the other one, asking to return later...it's very quiet, and the gardens are pretty...we didn't have time to try the fitness center, pool, or jacuzzi, but looked good...above all, the staff is super friendly....thx so much!More</t>
   </si>
   <si>
+    <t>Ktlou86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r536441097-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -502,6 +544,9 @@
     <t>Rooms are very clean and have a kitchen. Buffet breakfast has lots of choice. Gym has a good selection of equipment. Loved the decor of this hotel. Very modern and fresh. Ideal location for a short drive into LA. Plenty of shops and restaurants near by and close to the beach More</t>
   </si>
   <si>
+    <t>laurietravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r508433611-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -526,6 +571,9 @@
     <t>A great hotel, clean, no elevator to rooms.  We stayed in a 2 bedroom suite.  Upstairs loft with a queen bed, downstairs bedroom with a queen bed, 2 bathrooms, kitchen, pull out sofa in living room with fire place.  Breakfast was very good with a variety of hot and cold choices. Mid week night socials too!  Pool outside and great outdoor lounging area with fire pits, outdoor sofas, and warmers.Front desk staff and housekeeping staff super friendly!I would stay here again,  great job as always, Marriott!More</t>
   </si>
   <si>
+    <t>seashelly2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r501365210-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -553,6 +601,9 @@
     <t>Originally booked at a Holiday Inn Express Hawthorne, but they gave away our confirmed reservation. This place was only 10 minutes away, much cleaner and friendlier. Great Breakfast!  Big rooms.  Don't let lack of LAX shuttle worry you. We used Uber for $22 and had great stay. More</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r499464112-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -571,6 +622,9 @@
     <t>Typical Residence Inn quality.  Stayed in the second floor room with two bedrooms and two baths.  The first floor has the living room, kitchen and bedroom behind French doors and the second floor is a loft with full staircase and full bath.  Perfect for family vacation.  Torrance is also a great location to see all the LA sights and south also. More</t>
   </si>
   <si>
+    <t>Drmelendez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r496613750-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -598,6 +652,9 @@
     <t>Stay several days with my baby and the nanny for work and pleasure.  IS centrally located and the value is good.  Had the opportunity to have two rooms in the same unit that is not easy sometimes.  Amenities at the apartment are good but nothing high level.  The facility had a lot of “wear and tear”  Carpet was celan buth with excessive “deodorant powder” and lot of stains.  Breakfast area at the main building was like a disaster area.  For two nights is ok, but more than that is a big mistake.More</t>
   </si>
   <si>
+    <t>LynnKrog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r484833889-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -619,6 +676,9 @@
     <t>This is our third time staying here and once again it worked out perfectly.  Traveling with family, to visit family, using multiple rooms.  Rooms are spacious enough to have visitors and pool and other common areas provide easy gathering areas.  The breakfast had a very good assortment of hot and cold breakfast options.  The recent renovations of the lobby and breakfast area are very nice.  Only reason for 4 rating instead of a 5 is that in my son's unit there was some repairs needed on the door trim.  Sharp pieces had been broken off but where just set back in place and when the door shut these large, sharp pieces fell off.  With a one year old and three year old in that unit we were happy the parents found it before the little ones.More</t>
   </si>
   <si>
+    <t>KeshawnGut0831</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r481916957-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -646,6 +706,9 @@
     <t>Let me start off by saying ive worked for Marriott as a front desk agent for 4 years so i know how customer service is suppose to be and let me just say it was the most crappiest customer service ive ever had, upon check in the FDA charged me for the stay right then and there not only that but made me put a $250 deposit down, 1st off i did night audit so i know customers dont get charged for their stays until the night before check out 2nd ive never heard of being charged a $250 deposit!!!!!!!!! Usually we just have to hold a card for incidentals and such. I felt like he was being very prejudice towards me just cause i was black. Second as soon as we walk into the room it smells like wet dog! So i call the front desk and speak to the same FDA that checked me in and all he does is sends someone by with some air freshener, as my wife goes to shower she grabs a face towel and sees this black stain on it! And it reeks of dog! All the towels in the room smell! And shortly after the room starts smelling like Dog again, So i call up again and speak to the same FDA and demand he does something and all he says is sorry with no remorse and all he does is sends...Let me start off by saying ive worked for Marriott as a front desk agent for 4 years so i know how customer service is suppose to be and let me just say it was the most crappiest customer service ive ever had, upon check in the FDA charged me for the stay right then and there not only that but made me put a $250 deposit down, 1st off i did night audit so i know customers dont get charged for their stays until the night before check out 2nd ive never heard of being charged a $250 deposit!!!!!!!!! Usually we just have to hold a card for incidentals and such. I felt like he was being very prejudice towards me just cause i was black. Second as soon as we walk into the room it smells like wet dog! So i call the front desk and speak to the same FDA that checked me in and all he does is sends someone by with some air freshener, as my wife goes to shower she grabs a face towel and sees this black stain on it! And it reeks of dog! All the towels in the room smell! And shortly after the room starts smelling like Dog again, So i call up again and speak to the same FDA and demand he does something and all he says is sorry with no remorse and all he does is sends me new towels and more air freshener. By this time im already fed up with the whole thing so i go to target and buy plug in air fresheners! Housekeepers need to be retrained on cleaning techniques and FDA needs to learn how not to be complete pricks. If i could give 0 stars i would.More</t>
   </si>
   <si>
+    <t>Lilita10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r481774716-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -661,6 +724,9 @@
     <t>The hotel is great and the location fantastic.Rooms are super clean, pets are allowed here but no smell whatsoever in the room. It looks like the rooms have recently being renovated with very good taste. They are very comfortable with everything you might need provided. Breakfast is good and you can take it to your room if you like. Amenities are also good and well looked after. Del Amo shopping centre is very close by. I would definitely stay at this hotel again.More</t>
   </si>
   <si>
+    <t>Sheetboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r473697444-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -688,6 +754,9 @@
     <t>Stayed a few days for business - was MORE than enough space with king bed, couch, etc.  Full kitchen and a separate bathroom/vanity was nice as well.  Breakfast was very good with LOTs of choices (all free of course) location is great - very close to second largest mall in America with PLENTY of restaurant choices.  Great value all around.More</t>
   </si>
   <si>
+    <t>Ari R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r469650137-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -712,6 +781,9 @@
     <t>This hotel has definitely been my favorite out of all the ones on my 2 week trip. We stayed here for 3 nights, and I absolutely loved it and don't want to leave. The room is very spacious for 3 people. The bathroom is separate which is very helpful. The kitchen is full size and very nice. The room is quiet other than some road noise because we're right be the road but that's just our building and I don't mind road noise because I grew up in a big town so I like it. The breakfast is really good and stuff is very friendly. All around an excellent stay, Might come back to Torrance soon just to stay in this hotel!More</t>
   </si>
   <si>
+    <t>2016Donna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r464824245-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -739,6 +811,9 @@
     <t>This was a wonderful surprise when we arrived, I do not usually book online and was wondering what we should expect. This is a great place for a family or a group of friends. We were very comfortable and had a great breakfast each morning with lots of options for a vegan. This is also walkable to a very large shopping mall too big to see all the stores in it. We were visiting family and this worked out very well and a good price as well.More</t>
   </si>
   <si>
+    <t>rhammand</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r455303690-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -763,6 +838,9 @@
     <t>If you plan on a long stay prepared to move because remodeling is still going on.  It will probably continue for a long time since they are doing a little bit at a time.  We were told that our room had completed remodeling but a months later we were told to move because they recently got funding to replace the bathtubs.  They were not in good condition when we first checked in.More</t>
   </si>
   <si>
+    <t>Ron L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r455046353-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -781,6 +859,9 @@
     <t>The room was perfect in size for just me traveling.  It had a very comfortable bed, desk for working and a kitchenette was could be used to cook a real meal.  The facility and room were quiet; even with a baby next door.  Only things not making this excellent was the lack of parking.  That should be solved when they are finished with the remodeling as the construction material is taking up many spots.More</t>
   </si>
   <si>
+    <t>Troyfred26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r454277904-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -799,6 +880,9 @@
     <t>Had a great stay at this location. Four of us were very comfortable in this room; one loft bedroom upstairs with bath, one closed door bedroom downstairs with bath, and one pull out couch (small) in living room. Kitchen is fully equipped with oven and refrigerator. Property was being renovated but didn't bother us. Room was clean. Only con is that breakfast was very tasty except for waffles. Will stay again if back in area.More</t>
   </si>
   <si>
+    <t>k8iep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r440629814-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -826,6 +910,9 @@
     <t>Just spent 3 nights at the Residence Inn Torrance/Redondo Beach while visiting my daughter for Thanksgiving. Overall it was a very pleasant experience. The hotel is set up like a garden style condo complex with paths meandering through the units to get you to the pool, outdoor eating/grilling area, and the main building. Our room was recently remodeled and had a queen bed, sofa, tv, and fully equipped "kitchen" with full sized fridge, stove, oven and micro wave. Really nice feature had we stayed in the area longer. The breakfast was an unexpected and pleasant surprise. Perhaps the most diverse "free breakfast" I've experienced at these chain hotels - scrambled eggs, sausage, bacon, fruit, sausage/gravy/biscuits, pancakes, cereal, etc. They even had a beer/pizza reception the night we arrived. Staff were friendly and helpful. The hotel is going through a renovation and the parking area is full of excess furniture and work crews...but the only challenge this presented us was getting a parking spot one night and navigating around one of the large trucks. Overall we found our stay to be very pleasant. Would definitely recommend it to others.More</t>
   </si>
   <si>
+    <t>Andy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r430943764-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -853,6 +940,9 @@
     <t>We stayed here for 6 nights at the start of our LA vacation. Family of 4 we had a 2 bedroom suite which was excellent. Great location and as a base for LA we found it to be excellent. Easy access to all freeways close at had. Highlight had to be the buffet breakfast each day, fresh, ample and the choice was amazing. Everyday we enjoyed a great start to the day. Lovely building and staff were all excellent. Location has multiple takeaway options very close at hand, we had Panda Express, Dominos and various others all within 2/3 minute drive. Free safe parking was great and never an issue. Fantastic grounds and seated areas around the firepit. Overall we loved it and would return. We spent 16 nights travelling through California and Nevada and stayed at 5 hotels during this time, this was the best overall. Great place to stay. More</t>
   </si>
   <si>
+    <t>William J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r427520636-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -872,6 +962,9 @@
   </si>
   <si>
     <t>We stayed here four nights over the extended Labor Day weekend - visiting for a family wedding.  Our room was clean with a comfortable bed.  We had a minor issue with the room and the hotel staff addressed it immediately.  We spoke with reception associates several times and they were always friendly and hospitable.  While clean, our room definitely shows age spots but that didn't affect our stay.  I think that the bathroom was recently updated with new shower and toilet so it was very clean.The reception building (also has guest  lounge, meeting area, breakfast buffet, computer station and fitness room) was recently remodeled; very clean and comfortable with nice furniture.  We used the fitness room each morning, all equipment worked properly.  The breakfast buffet is quite extensive featuring scrambled eggs, breakfast meats, waffle makers, hot oatmeal and all of the cold items you might expect.  Very nice!The hotel is spread across a large footprint with rooms and suites being in separate two-story buildings, like pods.  Each has plenty of free parking and easy access.  I recommend this hotel because it offers good value for the price, especially considering the free breakfast and parking.  More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r422126434-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
@@ -904,6 +997,9 @@
   The Torrance Residence...   When we registered to attend the LA International Ukulele Festival this September I was delighted to learn that they recommended the nearby Torrance Marriott's Residence Inn as the hotel of choice for attendees.  I always look forward to an opportunity to stay at a Marriott's.     We arrived Friday late afternoon and at check in we met Shani at the front desk.  She was delightful!!  Just the person to lift our spirits after a long, long drive through LA traffic.  Shani was knowledgeable, efficient, professional, and very personable.  Even though we were road weary and tired, very soon Shani had us laughing and feeling right at home.  She got us checked into a very comfortable two bedroom, two bath penthouse with a full kitchen.  Also worth noting is that the Torrance Residence Inn had plenty of free parking right in front of our room with large spaces so your car doesn't get dings and there was free wifi.    There are several dining options right across from the Residence Inn at the Del Amo Fashion Center. We had a wonderful meal at Frida's Mexican Cuisine.  Four of our friends that had arrived earlier at the Residence Inn went to the nearby Redondo Beach Pier and said they enjoyed that.  We all had breakfast together at the Residence Inn on Saturday morning before going to the ukulele festival which was just a couple of minutes away at the Convention Center.  The Torrance Residence Inn is an older facility but it's well maintained, very comfortably appointed (I got the best night's sleep I've had in a long time), it's quiet and safe and the staff is wonderful!More</t>
   </si>
   <si>
+    <t>travelersalem_Oregon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r421934024-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -925,6 +1021,9 @@
     <t>Massive project-first the outside which was done nicely!  Great landscaping and cottage style.  Fantastic outside sitting area with fire pit.New, open, and inviting lobby.  Great food at night Monday-Wednesday.  Good breakfast in the morning.  Not real fakey tasking. Great staff.  Short distance to the beach and the airport. We had an old suite and it was not nice but would be soon changed.More</t>
   </si>
   <si>
+    <t>Meredith P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r420710480-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -943,6 +1042,9 @@
     <t>Great location as long as you have a hire car. Has a kitchen so you can do your own food if you wish. Clean, comfortable, nice pool and spa, BBQ and fire pit.Close to good shoppingStaff were extremely helpfulMore</t>
   </si>
   <si>
+    <t>maple1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r400779386-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -970,6 +1072,9 @@
     <t>Nice hotel, being modernized as I write this. Location is a few miles from the beach. Rooms are nice, more apartment like, and large as this is for extended stays. Wonderful breakfast that comes with your stay, free parking, fridge, ice maker, microwave, cook-top and dishwasher. I will address 2 concerns I read on reviews:1. Parking - there is plenty of parking, maybe not right on top of your room, but there are spots. Weekends the hotel had security to make sure no non-guests parked.2. Breakfast - outstanding...they may run out of something for a few minutes but more was always brought out.Evenings....some days the hotel had free BBQ...beer, wine, burgers....WOW.Very quiet...never heard a sound outside. Grounds are nice and kept clean. Rooms clean.One downside: Smoking....this is not a non-smoking hotel...you can sometimes smell smoke from other units. Ask for a non-smoking room. Unreal that in 2016 people can smoke inside rooms!!! Bad policy.Minor- we had an updated room. Need to update the bathroom a bit more...all new but left an old banged up door, handles different colors, water faucets not matching on tub and old, some rusting....but the entire room was new. Very minor, but if you are going to fix up a room, do it right.Hint: Ask for extra bathtowels...only leave 2.Would stay here again.Stayed July 2016More</t>
   </si>
   <si>
+    <t>joycen117</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r398023713-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -994,6 +1099,9 @@
     <t>This hotel is too old down, the door didn't close properly! I was travelling alone and was so worried at night bcos the door could be easily broke in! The only renovated part of the hotel is the main lobby!More</t>
   </si>
   <si>
+    <t>herd_of_5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r397724133-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1012,6 +1120,9 @@
     <t>We stayed here for seven days for vacation.   Everyone said don't stay in Torrance but it's where our Marriott points worked.   It was actually a great location,  we were within 20-40 minutes of the battleship Iowa,  Abolone Cove,  Cabrillo Aquarium,  Santa Monica Pier,  Science Museum and more.   Traffic wasn't bad and the beach was just a few miles away. The room was a bit dated but spotless,  kitchen well stocked.   In the mad rush to the airport we managed to forget our toiletry bag (for five people)  and they provided everything we needed.  Hot breakfast was good with lots of variety.   Pool was little,  but with Redondo beach within minutes we rarely used it.  Nice fire pit that was lit nightly.   It was in an area we felt safe,  we walked to several local restaurants. More</t>
   </si>
   <si>
+    <t>Vompatti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r393782253-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1033,6 +1144,9 @@
     <t>Stayed here in late September 2015. The hotel was a very good, we were happy for out stay there. The room was spacious, kitchen very well equipped and bed comfortable. Room was a bit dark (ground floor room) but it didn't matter since it was close to the pool area, so plenty of sun just a few steps away. Parking was a bit crowded. Housekeeping was very good and all the staff was so friendly and helpful! Pool area was very nice also, not crowded and well kept. Didn't use the barbeque facilities but it was a nice are to sit at night. Breakfast was good, sometimes bit crowded and some items were out if you arrived late. Breakfast area also was a bit crowded at downstairs (upstairs more tables so we chose to enjoy our breakfast there, really nice area there). Think the location was excellent: big mall really close and also supermarkets and places to eat. Not far from Redondo beach, short drive to there also. Do recommend this place!More</t>
   </si>
   <si>
+    <t>Stephen F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r391346364-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1075,6 +1189,9 @@
     <t>Stayed for a week with the kids. Staff especially housekeeping is super nice and friendly.  Rooms and spacious and clean (light odor - probably cleaning chemicals). Breakfast is fabulous, kids love their waffles... but go early around 7am especially on a holiday weekend otherwise selection will be limited.More</t>
   </si>
   <si>
+    <t>melybar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r380416080-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1102,6 +1219,9 @@
     <t>Nice place tucked away with great staff. Some construction but they are very aware to ensure it does not infringe on the guests. Moments away from Redondo Beach where I could spend each and every day! Great rates and they continue to make good enhancements! More</t>
   </si>
   <si>
+    <t>theOCjeremy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r379519216-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1129,6 +1249,9 @@
     <t>When I walked into my suite I got the impression it was formerly a large studio apartment that was converted to a hotel room. It was one large room with a bed at one end and a living area (sofa, chair, table, TV) at the other. There's a small kitchen with the usual amenities (microwave, coffeemaker, range, etc) and the vanity/bathroom was spacious (albeit a little outdated). At the end of the day, this isn't a luxury property or a full-service Marriott but it will be a clean, comfortable place to sleep. If you're familiar with Marriott's Courtyard brand it's very similar in finishings to that - same bed, same soaps/shampoos, etc.Note - I stayed here as I just needed a place to stay in between an evening flight arriving at LAX with an early morning flight the next day. This property was about 15ish minutes from the airport - not the closest but it wasn't so far that it was inconvenient either.More</t>
   </si>
   <si>
+    <t>LokiMehra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r378809631-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1147,6 +1270,9 @@
     <t>We book a 2 room suite and it was wonderful, the rooms didn't look renovated but the amenities were great. The hotel staff was helpful and courteous. The breakfast they provide is great for adults and kids and has great options. I would love stay in Residence Inn again.More</t>
   </si>
   <si>
+    <t>Blessedrn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r374710571-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1171,6 +1297,9 @@
     <t>I stayed at the Residence Inn hotel for 3 nights for business purposes. The hotel was very loud with upstairs guests walking around their room, sound like they are going to come through my ceiling. The first room they gave me smelled like cigarette smoke so I went back to the front desk to ask for another room. The staff was extremely helpful and gave me another room without any attitude or problem. The next room I had was fine, not as nice as the first room but didn't smell of smoke. The hotel is in the middle of construction so lots of noise and activity from that work. I originally parked my car in front of my room but the construction workers were playing football/catch in the parking lot, very close to the cars so I parked in the back of the hotel. I wasn't comfortable with my car in the back, without having any eyes on it so I moved it to the very front of the hotel, near the concierge/front desk. A couple of times, the key card didn't work in my door so I had to walk back and forth to the front desk. One occasion, I had to walk back and forth three times before they got it straightened out. I will not be returning to this hotel as it seemed more like a party hotel (people showing up with cases of beer and smoking...I stayed at the Residence Inn hotel for 3 nights for business purposes. The hotel was very loud with upstairs guests walking around their room, sound like they are going to come through my ceiling. The first room they gave me smelled like cigarette smoke so I went back to the front desk to ask for another room. The staff was extremely helpful and gave me another room without any attitude or problem. The next room I had was fine, not as nice as the first room but didn't smell of smoke. The hotel is in the middle of construction so lots of noise and activity from that work. I originally parked my car in front of my room but the construction workers were playing football/catch in the parking lot, very close to the cars so I parked in the back of the hotel. I wasn't comfortable with my car in the back, without having any eyes on it so I moved it to the very front of the hotel, near the concierge/front desk. A couple of times, the key card didn't work in my door so I had to walk back and forth to the front desk. One occasion, I had to walk back and forth three times before they got it straightened out. I will not be returning to this hotel as it seemed more like a party hotel (people showing up with cases of beer and smoking in rooms) and I didn't feel terribly safe walking the grounds. The breakfast was fantastic and they offer light refreshments and wine (?) in the evenings. They have a FANTASTIC fire pit and BBQ area and I understand that they have a pretty great gym. Hopefully the construction will be done soon and they can focus on enforcing their non-smoking rules. More</t>
   </si>
   <si>
+    <t>Aleskinner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r373072216-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1195,6 +1324,9 @@
     <t>I stayed with my family for 3 week at this hotel and it was perfect. The rooms are comfortable with a smal kitchen that was perfect for my kids meals. The hotel had a delicious breakfast included. At check inn choose a room at first floor because of luggages.More</t>
   </si>
   <si>
+    <t>Road R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r372723773-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1213,6 +1345,9 @@
     <t>I think there's 30 people staying in the room next to ours.   I'm pretty sure this is a section 8 place.   Rooms are noisy from adjoining rooms.  Furnishings are old but they are clean.  Difficult to find parking if you come in late.More</t>
   </si>
   <si>
+    <t>Matt B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r368297288-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1234,6 +1369,9 @@
     <t>The staff here was very nice and the property is undergoing some renovations. The rooms are a bit worn but the beds are comfortable. The bathrooms are tiny with shower and toilet squeezed in. Overall, I think this is just fine and will be better once the updates have been completed.More</t>
   </si>
   <si>
+    <t>AliciaMagdalena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r367851477-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1255,6 +1393,9 @@
     <t>Me and my family stayed there for almost 2 months while we waited for our house to be ready and we can say that we are very pleased with the hotel.The location is very good, near very nice restaurants and a large shopping center; adequate gym and a nice pool.The complimentary breakfast was always very good and had different options to satisfy many different tastes.The staff is nice and always very helpful.They were remodeling at the moment, but they found a way to make it without disturbing the guests too much.More</t>
   </si>
   <si>
+    <t>JohnnyWorld</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r365242298-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1306,6 +1447,9 @@
     <t>It met the standard of the Residence Inns.  The room was clean, but smelled like someone had cooked food in there for the entire 5 days I was there, was not coming from the neighbors but rather a leftover smell from previous guests, the property just seemed dated.  The construction work on the parking lot was an inconvenience and I hold not fault on them for it, has to be done sometime I suppose.  The breakfast was good, standard offerings and the staff was very friendly and polite.  I'm not sure I would seek to stay here again, just wasn't that memorable, though the staff does what it can, property just needs a facelift and more in depth cleaning.More</t>
   </si>
   <si>
+    <t>Cara P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r359092898-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1324,6 +1468,9 @@
     <t>This hotel is in the middle of renovations, but I have no complaints. Everything was clean and linens were crisp. The grounds are well kept and the pool/grill area was great!  Within walking distance of fantastic mall....Nordstrom, Airhaus, etc. Great evening dining as well!  More</t>
   </si>
   <si>
+    <t>Ibrahim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r358609715-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1342,6 +1489,9 @@
     <t>The clientele here are a mix of vacationers &amp; business. The rooms are still in good shape for being one of the earlier residence inn in the southern California area but an upgrade is due. No safe in the room (But available at the front desk), traditional light switches in the main rooms (I had a two bedroom suite) so when leaving we had to run upstairs to be sure all the lights were off.Beds and pillows were fine. I have stayed here many times over the past years and will likely be back.More</t>
   </si>
   <si>
+    <t>Barbara C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r344245369-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1369,6 +1519,9 @@
     <t>My room was clean and nice with all of the amenities. It comes complete with a kitchen (oven, stove, full fridge/freezer, microwave, sink), and everything has recently been refurbished with granite counter tops. Breakfast is served every morning in the main building with the standard continental items as well as hot breakfast (eggs, bacon, sausage, oatmeal). You will fully enjoy your stay.More</t>
   </si>
   <si>
+    <t>Amy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r336931428-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1393,6 +1546,9 @@
     <t>We were three families searching for a place to getaway and spend New Years Eve and we found this Residence Inn that looked perfect and it was! The 2 bedroom penthouses were perfect for our families of 5-6. We were in different buildings, but the front desk was very accommodating in putting us near one another. The best part of the hotel are the gathering areas. The lobby is gorgeous and there is a large back room with 2 TVs and lots of seating. We made pot luck dinners each night and brought them down there. We were able to hang out and play games after as well! Another group was outside grilling and using the fire pit. The kids loved the basketball court and the pool too. Lots of shopping and restaurants nearby and easy drive to beach and anywhere in LA you want to go! Plan to go down early for the free breakfast on weekends. It was nutty in there!More</t>
   </si>
   <si>
+    <t>jkim3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r335347967-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1417,6 +1573,9 @@
     <t>right off the big street. staff were nice. breakfast was nice. it was very crowded.  parking lot gets filled up quickly. there was a family having a bbq at the pool, which I have never seen but it means that it is very family oriented over the weekend.More</t>
   </si>
   <si>
+    <t>minimize940314</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r331336832-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1444,6 +1603,9 @@
     <t>The best hotel ever. I stayed in penthouse style, which offered 2 floors. Staffs are very kind and helpful. Breakfast is good. The best part is that they offer free dinner on Monday to Wednesday. The room was very clean and neat. You can use pool, spa and fitness also. Kitchen is available, and it is sufficiently equipped.More</t>
   </si>
   <si>
+    <t>socalcatravler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r329787692-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1471,6 +1633,9 @@
     <t>Even though I live in the area my family from out of town came and we all stayed here. We got a Suite on the upper floor which included a bedroom, kitchen , fireplace and upstairs was a loft.  The rate included breakfast with it. The room was nice and clean. Had everything in the kitchen if you wanted to cook. Spacious. The breakfast was good. Nice selection of different items. It was crowded but has lots of places to sit inside and outside.  Has a nice BBQ area , pool, and basketball / volleyball court. The staff was very nice and accommodating. The location is perfect. Close to the new Del Amo Mall, lots of nearby restaurants. Close to the freeways. I would recommend this to anyone that is wanting to stay in the SouthBay area.More</t>
   </si>
   <si>
+    <t>dovogt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r328398877-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1489,6 +1654,9 @@
     <t>Nothing to complain about this Hotel. The rooms are very large and offer you every amenitie like full-size fridge and a full kitchen. I was only staying four 3 nights, so it was a little wasted on me. But it seems very good for extended business trips. The location was very good for where I needed to go and there are many shops and restaurants nearby. Its also not far to Redondo Beach or Manhatten Beach when you habe some time to do sightseeing. The breakfast was solid though not overly luxurious. The only downside might be the quite substantial prize. So you should check whether your companies travel policy covers it. Privately I might have tries to look for a place with better value. If you come to LA area for extended business you cannot go wrong here.More</t>
   </si>
   <si>
+    <t>Bass63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r324341174-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1513,6 +1681,9 @@
     <t>We stayed for 1 night before our flight back to Europe and the hotel is conveniently located, close to the Del Amo Fashion center and fairly close to the airport. The rooms are large and the complimentary breakfast was more than adequate, probably the best we had on our entire trip.More</t>
   </si>
   <si>
+    <t>rpgamble7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r316915727-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1537,6 +1708,9 @@
     <t>This Hotel is close to everything in the south bay area.  Hotel is everything you would expect for Residence Inn.  Hotel is a little old but is very well up kept.  Everything is very clean.  All furniture and beds are new and very comfortable.  Staff is very helpful and kind.  Hotel provides night time security so you feel safe walking around at night.  Will stay here again when I return to the area.More</t>
   </si>
   <si>
+    <t>Lazrlady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r316457558-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1559,6 +1733,9 @@
   </si>
   <si>
     <t>I'm a business traveler and member of numerous frequent hotel programs.  I'm in a hotel at least 2-3 nights per week on a short week.  I have never stayed in a filthier hotel. I walked back out of the room and called the front desk.  Coming in late and knowing that the hotels in the area are booked solid, I knew it would not be any use to go anywhere else.  When I called the front desk, I was told there was not a room to change to as the hotel was 100% booked. It was so bad, I wouldn't take off my shoes until I had gotten in the bed.  I took the bedspread off the bed and slept in my clothes.More</t>
+  </si>
+  <si>
+    <t>racerd0g</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r306102808-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
@@ -1586,6 +1763,9 @@
 As hotels go the Residence Inn stands out to me as one of the better slightly "older" hotels....This is one of those little places you don't really want to let the secret out about. What I mean is the Residence Inn is a quiet little hotel that's in the Torrance, California Zip code which gives the impression it's next some oil well on a hill. Not so! This Residence Inn is perfectly situated geographically to be about 40 minutes to anywhere in Orange County that you might like to visit. Plus, it's right next to one of my favorite spots, the Redondo Pier. The beach and good food are all close by. On Sunday we enjoyed a walk down one of the local downtown streets for an antique flea market sale. Just an enjoyable time on a Sunday morning.Freeway access to the 110; 405; or 710, is within easy distance of the hotel. And depending on your destination, (and time of day), you can easily navigate to any business, beach, theme park, or personal destination without having to deal with too much traffic. For example I dropped my wife off at the LA Convention Center within 30 minutes leaving me enough time to make my destination in Commerce a mere 10 minutes away. The point? Why pay $250-$300 a night when the Residence Inn is just a hop skip and a jump away for nearly half the price.As hotels go the Residence Inn stands out to me as one of the better slightly "older" hotels. The room had a typical smell of being closed up for awhile before we arrived. (Room 612) But smelled clean and aired out quickly. I liked the fact that parking was free and plentiful right in front of our door. That's convenient. Our suite was quiet. Very nice at night. The A/C unit hummed at a low tolerable decibel level and the room was designed for easy access and accommodations.The breakfast buffet is well laid out to allow for easy access and general seating accommodations without feeling cramped or over crowded. Food was good. Fresh. You can eat light or heavy depending on your appetite. People from all over the world stayed here during our stay. They were friendly and we found our time there pleasant.Staff knows how to serve without being seen. Front desk is friendly and helpful. I would definitely stay there again. Maybe. Depending on whether you can keep the secret from spreading too far.,,More</t>
   </si>
   <si>
+    <t>sunnydc2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r304800727-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1610,6 +1790,9 @@
     <t>Very old and dirty street furniture.  Don't be fooled by getting upgraded to penthouse suite.  It was smelly and stuffy and needed furniture to be thrown away right away.  Door lock was flimsy.  Needed serious update.More</t>
   </si>
   <si>
+    <t>David I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r301334280-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1634,6 +1817,9 @@
     <t>Obviously an older property. It was a little loud too. We were given a handicap room and the shower was broken. No evening snacks Thursday to Sunday but breakfast was OK, standard free (room was 200.00) breakfast. I did speak with management and they gave me reward points, which I appreciated. I think this was only fair and the right thing to do. We are Marriott owners in Orlando. Won't be back here though. More</t>
   </si>
   <si>
+    <t>CantonFairVisitor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r297366466-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1655,6 +1841,9 @@
     <t>we have stayed here several times, we like the location, and the rooms, we book a family room, which has a mezzanine bedroom for our son to stay in, great facilities (Kitchen, bathrooms, fireplace) the hotel, has a small pool and limited facilities (restaurant has been under repair for nearly 2 years).the reason we like this hotel is the location, its directly over the road from the Del Amo shopping center. to the right is a Ralph's, so you don't have to go far to get supplies. its approx a 10 minute drive to get to the beach as well.More</t>
   </si>
   <si>
+    <t>gaylordm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r297165269-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1670,6 +1859,9 @@
     <t>Nice location close to shopping and restaurants.  On Torrance Blvd, we had one of the front rooms and road noise was tolerable.  This hotel does not have 1 bedroom suites.  The 2 queen studio was fairly spacious.  Breakfast was standard for these properties with the exception of the tiny coffee cups, I mean small.  We reverted to making coffee in our room.  WiFi was good in the room however seemed to be lacking on the breakfast deck.  Better than average front desk and housekeeping staff.  Hotel has not yet installed low flow showerheads which was disappointing given the drought.  Good neighborhood, even though not much in walking distance, everything is a short drive.  Parking is packed, spaces are decent sized and our full sized SUV was fine.More</t>
   </si>
   <si>
+    <t>Sbdiva20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r296102777-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1691,6 +1883,9 @@
     <t>My parents and I stayed here for a month after the house caught on fire. The insurance company set us up here. The staff was very empathetic of our situation and offered to help get anything we needed. The rooms are like condos. Ours had a loft and a lot of room for our things and our 2 dogs. More</t>
   </si>
   <si>
+    <t>Christinelaine11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r289683085-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1718,6 +1913,9 @@
     <t>This hotel is so outdated. Everything inside the room from the carpets to the nightstands looked like they were from the 80s. It was extremely gross and the beds were terrible. Was there for the week and they didn't come clean it even once. Very disappointing. More</t>
   </si>
   <si>
+    <t>sunjoe075</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r289387391-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1739,6 +1937,9 @@
     <t>I stayed at residence inns in Raleigh NC, Alexandria VA, Boston, MA before and had positive experiences. This one can use a little touch up. The public area is fine. They actually have outdoor swimming pool and hot tub. The lounge area they have breakfast and evening social is spacious and fresh. The room is spacious but dull. Little things like door knob is badly tarnished, iron board has a crooked stand, faucet looks like something from the 80s. The bed is okay. I had a good night sleepMore</t>
   </si>
   <si>
+    <t>Monica N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r287582533-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1757,6 +1958,9 @@
     <t>This was a pleasant place to stay during an intense week-long training.  I checked in Monday evening and found there were fun evening activities planned for the next three nights. The best was Wednesday's Food Truck Rally!  Yummmm. We were offered free food and beverages with a fun party atmosphere!  Those evenings, combined with free breakfasts, made this stay totally worth it. As for my room, it was super clean, large, and comfy!  Lots of electrical outlets for my devices, and the all-important wifi worked perfectly. Big surprise was the free shuttle to local areas. John and Eddie (Shuttle Drivers) were super helpful getting me to my class each day. Not having to battle traffic and parking was a HUGE BONUS!  In fact, I tried to book another week for my next training, but they are already booked. Thank goodness for the next door hotel having availability. I really like the shuttle!More</t>
   </si>
   <si>
+    <t>ajm1224</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r283159753-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1784,6 +1988,9 @@
     <t>We arrived early and were given and upgraded suite close to another family we were traveling with. The room was like an apartment. Had a full kitchen with dishwasher and full size refrigerator. An upstairs and downstairs and even a wood fireplace.More</t>
   </si>
   <si>
+    <t>M V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r282407709-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1802,6 +2009,9 @@
     <t>The rooms were very clean and spacious, although the flooring was a little dated. The beds were very comfortable.  Our unit had a kitchen.  There was bottled water in the refrigerator, for a cost of $3.50 per bottle.  I suggest buying your own, Target and Walmart are within 2 miles. There is a mall and beach very close by, several options for eating. The breakfast buffet was one of the best I have ever seen. The hotel was pretty busy on Friday and Saturday, but nice and quiet the other days.  The grounds are very well kept. The front desk staff was very friendly!More</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r282089531-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
   </si>
   <si>
@@ -1824,6 +2034,9 @@
   </si>
   <si>
     <t>'The Newly Renovated Residence Inn' as depicted by the website was a bit misleading. I will start by saying that the lobby was absolutely beautiful, it was renovated nicely and staff was very friendly. However, the room was dirty, the fridge was banged up, the door would not latch correctly leaving a very noticeable gap with light shining through. This gave me the impression of a security concern at which point I decided to check back out. The tubs had rust around the secondary discharge. The staff left cleaning solution in the room. Clearly attention to detail was not there and the room did not receive a similar level of renovation.More</t>
+  </si>
+  <si>
+    <t>shelly1513</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82360-r265589091-Residence_Inn_Los_Angeles_Torrance_Redondo_Beach-Torrance_California.html</t>
@@ -2355,43 +2568,47 @@
       <c r="A2" t="n">
         <v>5266</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2407,47 +2624,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5266</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -2466,50 +2687,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5266</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2527,56 +2752,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5266</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2592,56 +2821,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5266</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2659,56 +2892,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5266</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2724,56 +2961,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5266</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2791,56 +3032,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5266</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2852,56 +3097,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5266</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2919,56 +3168,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5266</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2986,56 +3239,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5266</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3047,56 +3304,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5266</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3114,56 +3375,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5266</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3181,56 +3446,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5266</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3242,56 +3511,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5266</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3303,56 +3576,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5266</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3364,56 +3641,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5266</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3425,56 +3706,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5266</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3492,56 +3777,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5266</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3557,56 +3846,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5266</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3618,56 +3911,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5266</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3683,56 +3980,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5266</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3748,56 +4049,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5266</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3809,56 +4114,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5266</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3876,56 +4185,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5266</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3937,56 +4250,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="X26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="Y26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5266</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>270</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4002,56 +4319,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5266</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4063,56 +4384,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5266</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4124,56 +4449,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="X29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5266</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4185,56 +4514,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="X30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="Y30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5266</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4246,56 +4579,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="X31" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="Y31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5266</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="J32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="K32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4307,56 +4644,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5266</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>321</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4372,56 +4713,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="X33" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5266</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4433,56 +4778,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="X34" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5266</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="J35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="O35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4500,56 +4849,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="X35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="Y35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5266</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>346</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="O36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4565,56 +4918,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="X36" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="Y36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5266</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>355</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="J37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="L37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="O37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4626,56 +4983,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="X37" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5266</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4691,56 +5052,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="X38" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="Y38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5266</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>370</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="K39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4752,56 +5117,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="X39" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5266</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>312</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4813,56 +5182,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="X40" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="Y40" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5266</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>385</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="J41" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K41" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L41" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="O41" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4874,56 +5247,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="X41" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="Y41" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5266</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>395</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="J42" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="K42" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="O42" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4939,56 +5316,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="X42" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="Y42" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5266</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="J43" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="K43" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="L43" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="O43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5000,56 +5381,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="X43" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="Y43" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5266</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>412</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="J44" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="K44" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="L44" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5061,47 +5446,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="X44" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="Y44" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5266</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>421</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="J45" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="K45" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="L45" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
@@ -5118,56 +5507,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="X45" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="Y45" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5266</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>430</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="J46" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="K46" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="L46" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -5185,56 +5578,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="X46" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="Y46" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>5266</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>437</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="J47" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="K47" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="L47" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O47" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5252,56 +5649,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="X47" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="Y47" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>5266</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>445</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="J48" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="K48" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="L48" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5317,56 +5718,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="X48" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="Y48" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>5266</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>453</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="J49" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="K49" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="L49" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5382,56 +5787,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="X49" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>5266</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="L50" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5447,56 +5856,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="X50" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="Y50" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>5266</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>471</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="J51" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="K51" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="L51" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5508,56 +5921,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="X51" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="Y51" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>5266</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>478</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="J52" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="K52" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="L52" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5573,56 +5990,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="X52" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="Y52" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>5266</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>485</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="J53" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="K53" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="L53" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -5640,56 +6061,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="X53" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="Y53" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>5266</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>495</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="J54" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="K54" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="L54" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5707,56 +6132,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="X54" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Y54" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>5266</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>504</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="J55" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="K55" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="L55" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="O55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5772,56 +6201,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="X55" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="Y55" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>5266</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>513</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="J56" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="K56" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="L56" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5839,56 +6272,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="X56" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="Y56" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>5266</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>523</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="J57" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="K57" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="L57" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="O57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5900,56 +6337,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="X57" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="Y57" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>5266</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>533</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="J58" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="K58" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="L58" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="O58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5961,56 +6402,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="X58" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="Y58" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>5266</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>540</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="J59" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="K59" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="L59" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6028,56 +6473,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="X59" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="Y59" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>5266</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>549</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="J60" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="K60" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="L60" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6095,56 +6544,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="X60" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="Y60" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>5266</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>558</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="J61" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="K61" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="L61" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="O61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6162,56 +6615,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="X61" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="Y61" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>5266</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>567</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="J62" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="K62" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="L62" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="O62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6229,56 +6686,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="X62" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="Y62" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>5266</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>575</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="J63" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="K63" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="L63" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="O63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6296,56 +6757,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="X63" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="Y63" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>5266</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>584</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="J64" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="K64" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="L64" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="O64" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6357,56 +6822,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="X64" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="Y64" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>5266</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>593</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="J65" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="K65" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="L65" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="O65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6424,56 +6893,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="X65" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="Y65" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>5266</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>601</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="J66" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="K66" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="L66" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="O66" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6485,56 +6958,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="X66" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="Y66" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>5266</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>607</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="J67" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="K67" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="L67" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6546,56 +7023,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="X67" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="Y67" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>5266</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>615</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="J68" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="K68" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="L68" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="O68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6607,56 +7088,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="X68" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="Y68" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>5266</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>625</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="J69" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="K69" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="L69" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="O69" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6668,47 +7153,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="X69" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="Y69" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>5266</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>633</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="J70" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="K70" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="L70" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -6727,50 +7216,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>5266</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>640</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="J71" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="K71" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="L71" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="O71" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6788,56 +7281,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="X71" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="Y71" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>5266</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>650</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="J72" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="K72" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="L72" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -6853,56 +7350,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="X72" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="Y72" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>5266</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>657</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="J73" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="K73" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="L73" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="O73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -6918,56 +7419,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="X73" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="Y73" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>5266</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>666</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="J74" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="K74" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="L74" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="O74" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -6983,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="X74" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="Y74" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
